--- a/Civilworks cost/Expenditure_2017_18/RPA_Statement (Agriculture) 2017-18 (Final).xlsx
+++ b/Civilworks cost/Expenditure_2017_18/RPA_Statement (Agriculture) 2017-18 (Final).xlsx
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3189" uniqueCount="820">
   <si>
     <t>PROJECT MANAGEMENT OFFICE 
 HAOR FLOOD MANAGEMENT AND LIVELIHOOD
@@ -2764,6 +2764,18 @@
   </si>
   <si>
     <t>BAG LT</t>
+  </si>
+  <si>
+    <t>Gob_PD</t>
+  </si>
+  <si>
+    <t>Rpa_Pd</t>
+  </si>
+  <si>
+    <t>Total_pd</t>
+  </si>
+  <si>
+    <t>dif gob</t>
   </si>
 </sst>
 </file>
@@ -3151,7 +3163,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3535,6 +3547,47 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3604,47 +3657,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3976,56 +4002,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -17409,18 +17435,18 @@
       <c r="M351" s="17"/>
     </row>
     <row r="352" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B352" s="174" t="s">
+      <c r="B352" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C352" s="175"/>
-      <c r="D352" s="175"/>
-      <c r="E352" s="175"/>
-      <c r="F352" s="175"/>
-      <c r="G352" s="175"/>
-      <c r="H352" s="175"/>
-      <c r="I352" s="175"/>
-      <c r="J352" s="175"/>
-      <c r="K352" s="176"/>
+      <c r="C352" s="192"/>
+      <c r="D352" s="192"/>
+      <c r="E352" s="192"/>
+      <c r="F352" s="192"/>
+      <c r="G352" s="192"/>
+      <c r="H352" s="192"/>
+      <c r="I352" s="192"/>
+      <c r="J352" s="192"/>
+      <c r="K352" s="193"/>
       <c r="L352" s="6"/>
       <c r="M352" s="17"/>
     </row>
@@ -18386,11 +18412,11 @@
       <c r="M378" s="17"/>
     </row>
     <row r="379" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B379" s="167" t="s">
+      <c r="B379" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C379" s="167"/>
-      <c r="D379" s="167"/>
+      <c r="C379" s="184"/>
+      <c r="D379" s="184"/>
       <c r="E379" s="21">
         <f>SUM(E354:E378)</f>
         <v>13579035</v>
@@ -18437,10 +18463,10 @@
     </row>
     <row r="382" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A382" s="79"/>
-      <c r="C382" s="165" t="s">
+      <c r="C382" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D382" s="166"/>
+      <c r="D382" s="183"/>
       <c r="E382" s="35">
         <f>I349+I379</f>
         <v>78979427</v>
@@ -18845,56 +18871,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -20485,18 +20511,18 @@
       <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="174" t="s">
+      <c r="B47" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="175"/>
-      <c r="D47" s="175"/>
-      <c r="E47" s="175"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="175"/>
-      <c r="H47" s="175"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="175"/>
-      <c r="K47" s="176"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="192"/>
+      <c r="E47" s="192"/>
+      <c r="F47" s="192"/>
+      <c r="G47" s="192"/>
+      <c r="H47" s="192"/>
+      <c r="I47" s="192"/>
+      <c r="J47" s="192"/>
+      <c r="K47" s="193"/>
       <c r="L47" s="6"/>
       <c r="M47" s="17"/>
     </row>
@@ -20709,11 +20735,11 @@
       <c r="M53" s="17"/>
     </row>
     <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="167" t="s">
+      <c r="B54" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="184"/>
       <c r="E54" s="21">
         <f>SUM(E49:E53)</f>
         <v>1092000</v>
@@ -20760,10 +20786,10 @@
     </row>
     <row r="57" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="79"/>
-      <c r="C57" s="165" t="s">
+      <c r="C57" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D57" s="166"/>
+      <c r="D57" s="183"/>
       <c r="E57" s="35">
         <f>I44+I54</f>
         <v>8540780</v>
@@ -21157,56 +21183,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -21978,18 +22004,18 @@
       <c r="M25" s="17"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="174" t="s">
+      <c r="B26" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="176"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="192"/>
+      <c r="K26" s="193"/>
       <c r="L26" s="6"/>
       <c r="M26" s="17"/>
     </row>
@@ -22046,11 +22072,11 @@
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="184"/>
       <c r="E29" s="21">
         <f>SUM(E28:E28)</f>
         <v>0</v>
@@ -22082,10 +22108,10 @@
     </row>
     <row r="31" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="79"/>
-      <c r="C31" s="165" t="s">
+      <c r="C31" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="166"/>
+      <c r="D31" s="183"/>
       <c r="E31" s="35">
         <f>I23+I29</f>
         <v>3369497</v>
@@ -22438,14 +22464,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B26:K26"/>
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B26:K26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.2" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -22480,56 +22506,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -23457,18 +23483,18 @@
       <c r="M29" s="17"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="174" t="s">
+      <c r="B30" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="176"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="193"/>
       <c r="L30" s="6"/>
       <c r="M30" s="17"/>
     </row>
@@ -23954,11 +23980,11 @@
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="167" t="s">
+      <c r="B44" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="184"/>
       <c r="E44" s="21">
         <f>SUM(E32:E43)</f>
         <v>3133035</v>
@@ -24005,10 +24031,10 @@
     </row>
     <row r="47" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="79"/>
-      <c r="C47" s="165" t="s">
+      <c r="C47" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="166"/>
+      <c r="D47" s="183"/>
       <c r="E47" s="35">
         <f>I27+I44</f>
         <v>7061519</v>
@@ -24403,56 +24429,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -25653,18 +25679,18 @@
       <c r="M36" s="17"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="176"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="193"/>
       <c r="L37" s="6"/>
       <c r="M37" s="17"/>
     </row>
@@ -25760,11 +25786,11 @@
       <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="167" t="s">
+      <c r="B41" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
       <c r="E41" s="21">
         <f>SUM(E39:E40)</f>
         <v>462000</v>
@@ -25811,10 +25837,10 @@
     </row>
     <row r="44" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="79"/>
-      <c r="C44" s="165" t="s">
+      <c r="C44" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="166"/>
+      <c r="D44" s="183"/>
       <c r="E44" s="35">
         <f>I34+I41</f>
         <v>5975215</v>
@@ -26184,10 +26210,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T481"/>
+  <dimension ref="A1:AB481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" zoomScaleSheetLayoutView="87" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26209,61 +26235,64 @@
     <col min="17" max="17" width="19.5546875" customWidth="1"/>
     <col min="18" max="18" width="13.21875" customWidth="1"/>
     <col min="19" max="19" width="11.44140625" customWidth="1"/>
-    <col min="20" max="20" width="17.109375" customWidth="1"/>
+    <col min="20" max="20" width="17.109375" style="203" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-    </row>
-    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+    </row>
+    <row r="2" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+    <row r="4" spans="1:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -26300,7 +26329,7 @@
       <c r="M4" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="N4" s="195"/>
+      <c r="N4" s="172"/>
       <c r="O4" s="11" t="s">
         <v>811</v>
       </c>
@@ -26316,15 +26345,24 @@
       <c r="S4" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="204" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="U4" s="208" t="s">
+        <v>816</v>
+      </c>
+      <c r="V4" s="208" t="s">
+        <v>817</v>
+      </c>
+      <c r="W4" s="208" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="209" t="s">
         <v>798</v>
       </c>
       <c r="D5" s="112">
@@ -26345,15 +26383,21 @@
       <c r="M5" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="N5" s="195"/>
+      <c r="N5" s="172"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T5" s="37"/>
+      <c r="AA5" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -26392,18 +26436,18 @@
       <c r="M6" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="N6" s="195" t="s">
+      <c r="N6" s="172" t="s">
         <v>799</v>
       </c>
-      <c r="O6" s="190">
+      <c r="O6" s="167">
         <f>SUMIF($M$5:$M$344,"LT",$H$5:$H$344)</f>
         <v>754594</v>
       </c>
-      <c r="P6" s="190">
+      <c r="P6" s="167">
         <f>SUMIF($M$5:$M$344,"LT",$I$5:$I$344)</f>
         <v>6718333</v>
       </c>
-      <c r="Q6" s="190">
+      <c r="Q6" s="167">
         <f>SUMIF($M$5:$M$344,"LT",$E$5:$E$344)</f>
         <v>7472927</v>
       </c>
@@ -26419,8 +26463,37 @@
         <f>Q6/100000</f>
         <v>74.72927</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="165">
+        <v>6.8</v>
+      </c>
+      <c r="V6" s="165">
+        <v>79.75</v>
+      </c>
+      <c r="W6" s="165">
+        <v>86.55</v>
+      </c>
+      <c r="X6">
+        <f>U6*10^5</f>
+        <v>680000</v>
+      </c>
+      <c r="Y6">
+        <f>V6*10^5</f>
+        <v>7975000</v>
+      </c>
+      <c r="Z6">
+        <f>W6*10^5</f>
+        <v>8655000</v>
+      </c>
+      <c r="AA6" s="210">
+        <f>X6-O6</f>
+        <v>-74594</v>
+      </c>
+      <c r="AB6" s="210">
+        <f>Y6-P6</f>
+        <v>1256667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -26459,18 +26532,18 @@
       <c r="M7" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="N7" s="195" t="s">
+      <c r="N7" s="172" t="s">
         <v>802</v>
       </c>
-      <c r="O7" s="190">
+      <c r="O7" s="167">
         <f>SUMIF($M$5:$M$344,"APSS",$H$5:$H$344)</f>
         <v>4470742</v>
       </c>
-      <c r="P7" s="190">
+      <c r="P7" s="167">
         <f>SUMIF($M$5:$M$344,"APSS",$I$5:$I$344)</f>
         <v>42085521</v>
       </c>
-      <c r="Q7" s="190">
+      <c r="Q7" s="167">
         <f>SUMIF($M$5:$M$344,"APSS",$E$5:$E$344)</f>
         <v>46556263</v>
       </c>
@@ -26486,8 +26559,37 @@
         <f t="shared" ref="T7:T8" si="3">Q7/100000</f>
         <v>465.56263000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="U7" s="165">
+        <v>24.64</v>
+      </c>
+      <c r="V7" s="165">
+        <v>500.25</v>
+      </c>
+      <c r="W7" s="165">
+        <v>524.89</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:X9" si="4">U7*10^5</f>
+        <v>2464000</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y9" si="5">V7*10^5</f>
+        <v>50025000</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7:Z9" si="6">W7*10^5</f>
+        <v>52489000</v>
+      </c>
+      <c r="AA7" s="210">
+        <f t="shared" ref="AA7:AA8" si="7">X7-O7</f>
+        <v>-2006742</v>
+      </c>
+      <c r="AB7" s="210">
+        <f t="shared" ref="AB7:AB8" si="8">Y7-P7</f>
+        <v>7939479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>4</v>
       </c>
@@ -26526,18 +26628,18 @@
       <c r="M8" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="N8" s="195" t="s">
+      <c r="N8" s="172" t="s">
         <v>803</v>
       </c>
-      <c r="O8" s="190">
+      <c r="O8" s="167">
         <f>SUMIF($M$5:$M$344,"SIGS",$H$5:$H$344)</f>
         <v>1932416</v>
       </c>
-      <c r="P8" s="190">
+      <c r="P8" s="167">
         <f>SUMIF($M$5:$M$344,"SIGS",$I$5:$I$344)</f>
         <v>17732598</v>
       </c>
-      <c r="Q8" s="190">
+      <c r="Q8" s="167">
         <f>SUMIF($M$5:$M$344,"SIGS",$E$5:$E$344)</f>
         <v>19665014</v>
       </c>
@@ -26553,8 +26655,37 @@
         <f t="shared" si="3"/>
         <v>196.65013999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="U8" s="165">
+        <v>14.5</v>
+      </c>
+      <c r="V8" s="165">
+        <v>209.79</v>
+      </c>
+      <c r="W8" s="165">
+        <v>224.29</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="4"/>
+        <v>1450000</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="5"/>
+        <v>20979000</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="6"/>
+        <v>22429000</v>
+      </c>
+      <c r="AA8" s="210">
+        <f t="shared" si="7"/>
+        <v>-482416</v>
+      </c>
+      <c r="AB8" s="210">
+        <f t="shared" si="8"/>
+        <v>3246402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>5</v>
       </c>
@@ -26593,33 +26724,57 @@
       <c r="M9" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="N9" s="195"/>
-      <c r="O9" s="190">
-        <f t="shared" ref="O9:R9" si="4">SUM(O6:O8)</f>
+      <c r="N9" s="172"/>
+      <c r="O9" s="167">
+        <f t="shared" ref="O9:R9" si="9">SUM(O6:O8)</f>
         <v>7157752</v>
       </c>
-      <c r="P9" s="190">
-        <f t="shared" si="4"/>
+      <c r="P9" s="167">
+        <f t="shared" si="9"/>
         <v>66536452</v>
       </c>
-      <c r="Q9" s="190">
-        <f t="shared" si="4"/>
+      <c r="Q9" s="167">
+        <f t="shared" si="9"/>
         <v>73694204</v>
       </c>
-      <c r="R9" s="190">
-        <f t="shared" si="4"/>
+      <c r="R9" s="167">
+        <f t="shared" si="9"/>
         <v>71.577519999999993</v>
       </c>
-      <c r="S9" s="190">
+      <c r="S9" s="167">
         <f>SUM(S6:S8)</f>
         <v>665.36451999999997</v>
       </c>
-      <c r="T9" s="190">
+      <c r="T9" s="167">
         <f>SUM(T6:T8)</f>
         <v>736.94204000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="U9" s="165">
+        <f>SUM(U6:U8)</f>
+        <v>45.94</v>
+      </c>
+      <c r="V9" s="165">
+        <f>SUM(V6:V8)</f>
+        <v>789.79</v>
+      </c>
+      <c r="W9" s="165">
+        <f>SUM(W6:W8)</f>
+        <v>835.7299999999999</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>4594000</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="5"/>
+        <v>78979000</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="6"/>
+        <v>83572999.999999985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -26658,32 +26813,32 @@
       <c r="M10" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="N10" s="195" t="s">
+      <c r="N10" s="172" t="s">
         <v>815</v>
       </c>
-      <c r="O10" s="191">
+      <c r="O10" s="168">
         <v>1188785</v>
       </c>
-      <c r="P10" s="192">
+      <c r="P10" s="169">
         <v>12945250</v>
       </c>
-      <c r="Q10" s="191">
+      <c r="Q10" s="168">
         <v>14134035</v>
       </c>
-      <c r="R10" s="194">
-        <f>O10/10^5</f>
+      <c r="R10" s="171">
+        <f t="shared" ref="R10:T11" si="10">O10/10^5</f>
         <v>11.88785</v>
       </c>
-      <c r="S10" s="194">
-        <f>P10/10^5</f>
+      <c r="S10" s="171">
+        <f t="shared" si="10"/>
         <v>129.45249999999999</v>
       </c>
-      <c r="T10" s="194">
-        <f>Q10/10^5</f>
+      <c r="T10" s="171">
+        <f t="shared" si="10"/>
         <v>141.34035</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>7</v>
       </c>
@@ -26724,33 +26879,33 @@
       <c r="M11" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="N11" s="195"/>
-      <c r="O11" s="190">
+      <c r="N11" s="172"/>
+      <c r="O11" s="167">
         <f>SUM(O9,O10)</f>
         <v>8346537</v>
       </c>
-      <c r="P11" s="190">
-        <f t="shared" ref="P11:Q11" si="5">SUM(P9,P10)</f>
+      <c r="P11" s="167">
+        <f t="shared" ref="P11:Q11" si="11">SUM(P9,P10)</f>
         <v>79481702</v>
       </c>
-      <c r="Q11" s="190">
-        <f t="shared" si="5"/>
+      <c r="Q11" s="167">
+        <f t="shared" si="11"/>
         <v>87828239</v>
       </c>
-      <c r="R11" s="193">
-        <f>O11/10^5</f>
+      <c r="R11" s="170">
+        <f t="shared" si="10"/>
         <v>83.465369999999993</v>
       </c>
-      <c r="S11" s="193">
-        <f>P11/10^5</f>
+      <c r="S11" s="170">
+        <f t="shared" si="10"/>
         <v>794.81701999999996</v>
       </c>
-      <c r="T11" s="193">
-        <f>Q11/10^5</f>
+      <c r="T11" s="37">
+        <f t="shared" si="10"/>
         <v>878.28238999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>8</v>
       </c>
@@ -26790,7 +26945,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>9</v>
       </c>
@@ -26830,7 +26985,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>10</v>
       </c>
@@ -26857,7 +27012,7 @@
         <v>25487</v>
       </c>
       <c r="I14" s="53">
-        <f t="shared" ref="I14:I47" si="6">E14-H14</f>
+        <f t="shared" ref="I14:I47" si="12">E14-H14</f>
         <v>198780</v>
       </c>
       <c r="J14" s="13">
@@ -26871,7 +27026,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -26898,7 +27053,7 @@
         <v>25487</v>
       </c>
       <c r="I15" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198780</v>
       </c>
       <c r="J15" s="13">
@@ -26912,7 +27067,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>12</v>
       </c>
@@ -26939,7 +27094,7 @@
         <v>29607</v>
       </c>
       <c r="I16" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>197890</v>
       </c>
       <c r="J16" s="13">
@@ -26980,7 +27135,7 @@
         <v>29607</v>
       </c>
       <c r="I17" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>197890</v>
       </c>
       <c r="J17" s="13">
@@ -27021,7 +27176,7 @@
         <v>29048</v>
       </c>
       <c r="I18" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>189620</v>
       </c>
       <c r="J18" s="13">
@@ -27062,7 +27217,7 @@
         <v>22793</v>
       </c>
       <c r="I19" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198780</v>
       </c>
       <c r="J19" s="13">
@@ -27103,7 +27258,7 @@
         <v>19200</v>
       </c>
       <c r="I20" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>200000</v>
       </c>
       <c r="J20" s="13">
@@ -27144,7 +27299,7 @@
         <v>21077</v>
       </c>
       <c r="I21" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199912</v>
       </c>
       <c r="J21" s="13">
@@ -27185,7 +27340,7 @@
         <v>22793</v>
       </c>
       <c r="I22" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198780</v>
       </c>
       <c r="J22" s="13">
@@ -27226,7 +27381,7 @@
         <v>31438</v>
       </c>
       <c r="I23" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>196870</v>
       </c>
       <c r="J23" s="13">
@@ -27267,7 +27422,7 @@
         <v>23095</v>
       </c>
       <c r="I24" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198960</v>
       </c>
       <c r="J24" s="13">
@@ -27308,7 +27463,7 @@
         <v>17834</v>
       </c>
       <c r="I25" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199469</v>
       </c>
       <c r="J25" s="13">
@@ -27349,7 +27504,7 @@
         <v>18479</v>
       </c>
       <c r="I26" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>140895</v>
       </c>
       <c r="J26" s="13">
@@ -27390,7 +27545,7 @@
         <v>19200</v>
       </c>
       <c r="I27" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>200000</v>
       </c>
       <c r="J27" s="13">
@@ -27431,7 +27586,7 @@
         <v>22895</v>
       </c>
       <c r="I28" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199100</v>
       </c>
       <c r="J28" s="13">
@@ -27472,7 +27627,7 @@
         <v>38805</v>
       </c>
       <c r="I29" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199000</v>
       </c>
       <c r="J29" s="13">
@@ -27513,7 +27668,7 @@
         <v>29989</v>
       </c>
       <c r="I30" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199925</v>
       </c>
       <c r="J30" s="13">
@@ -27556,7 +27711,7 @@
         <v>23095</v>
       </c>
       <c r="I31" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198660</v>
       </c>
       <c r="J31" s="13">
@@ -27597,7 +27752,7 @@
         <v>38805</v>
       </c>
       <c r="I32" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199000</v>
       </c>
       <c r="J32" s="13">
@@ -27638,7 +27793,7 @@
         <v>29989</v>
       </c>
       <c r="I33" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199925</v>
       </c>
       <c r="J33" s="13">
@@ -27681,7 +27836,7 @@
         <v>23095</v>
       </c>
       <c r="I34" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198960</v>
       </c>
       <c r="J34" s="13">
@@ -27722,7 +27877,7 @@
         <v>21077</v>
       </c>
       <c r="I35" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198912</v>
       </c>
       <c r="J35" s="13">
@@ -27763,7 +27918,7 @@
         <v>38815</v>
       </c>
       <c r="I36" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199050</v>
       </c>
       <c r="J36" s="13">
@@ -27804,7 +27959,7 @@
         <v>38906</v>
       </c>
       <c r="I37" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199520</v>
       </c>
       <c r="J37" s="13">
@@ -27845,7 +28000,7 @@
         <v>19200</v>
       </c>
       <c r="I38" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>200000</v>
       </c>
       <c r="J38" s="13">
@@ -27886,7 +28041,7 @@
         <v>23095</v>
       </c>
       <c r="I39" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198260</v>
       </c>
       <c r="J39" s="13">
@@ -27927,7 +28082,7 @@
         <v>38805</v>
       </c>
       <c r="I40" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199000</v>
       </c>
       <c r="J40" s="13">
@@ -27968,7 +28123,7 @@
         <v>23115</v>
       </c>
       <c r="I41" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199140</v>
       </c>
       <c r="J41" s="13">
@@ -28009,7 +28164,7 @@
         <v>19801</v>
       </c>
       <c r="I42" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>196352</v>
       </c>
       <c r="J42" s="13">
@@ -28050,7 +28205,7 @@
         <v>12622</v>
       </c>
       <c r="I43" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199780</v>
       </c>
       <c r="J43" s="13">
@@ -28091,7 +28246,7 @@
         <v>24796</v>
       </c>
       <c r="I44" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199800</v>
       </c>
       <c r="J44" s="13">
@@ -28132,7 +28287,7 @@
         <v>38805</v>
       </c>
       <c r="I45" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>199000</v>
       </c>
       <c r="J45" s="13">
@@ -28173,7 +28328,7 @@
         <v>19200</v>
       </c>
       <c r="I46" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>200000</v>
       </c>
       <c r="J46" s="13">
@@ -28214,7 +28369,7 @@
         <v>23095</v>
       </c>
       <c r="I47" s="53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>198960</v>
       </c>
       <c r="J47" s="13">
@@ -28255,7 +28410,7 @@
         <v>18318</v>
       </c>
       <c r="I48" s="53">
-        <f t="shared" ref="I48:I111" si="7">E48-H48</f>
+        <f t="shared" ref="I48:I111" si="13">E48-H48</f>
         <v>197900</v>
       </c>
       <c r="J48" s="13">
@@ -28296,7 +28451,7 @@
         <v>23095</v>
       </c>
       <c r="I49" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J49" s="13">
@@ -28337,7 +28492,7 @@
         <v>20905</v>
       </c>
       <c r="I50" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198912</v>
       </c>
       <c r="J50" s="13">
@@ -28374,11 +28529,11 @@
         <v>9000</v>
       </c>
       <c r="H51" s="53">
-        <f t="shared" ref="H51:H114" si="8">F51+G51</f>
+        <f t="shared" ref="H51:H114" si="14">F51+G51</f>
         <v>19200</v>
       </c>
       <c r="I51" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>200000</v>
       </c>
       <c r="J51" s="13">
@@ -28415,11 +28570,11 @@
         <v>7769</v>
       </c>
       <c r="H52" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17519</v>
       </c>
       <c r="I52" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>194540</v>
       </c>
       <c r="J52" s="13">
@@ -28456,11 +28611,11 @@
         <v>8955</v>
       </c>
       <c r="H53" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>38805</v>
       </c>
       <c r="I53" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199000</v>
       </c>
       <c r="J53" s="13">
@@ -28497,11 +28652,11 @@
         <v>8978</v>
       </c>
       <c r="H54" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>38903</v>
       </c>
       <c r="I54" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199500</v>
       </c>
       <c r="J54" s="13">
@@ -28538,11 +28693,11 @@
         <v>6145</v>
       </c>
       <c r="H55" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I55" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J55" s="13">
@@ -28579,11 +28734,11 @@
         <v>7325</v>
       </c>
       <c r="H56" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>29180</v>
       </c>
       <c r="I56" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198500</v>
       </c>
       <c r="J56" s="13">
@@ -28620,11 +28775,11 @@
         <v>6145</v>
       </c>
       <c r="H57" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I57" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J57" s="13">
@@ -28661,11 +28816,11 @@
         <v>10793</v>
       </c>
       <c r="H58" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23822</v>
       </c>
       <c r="I58" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>192760</v>
       </c>
       <c r="J58" s="13">
@@ -28702,11 +28857,11 @@
         <v>8704</v>
       </c>
       <c r="H59" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>22249</v>
       </c>
       <c r="I59" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>195060</v>
       </c>
       <c r="J59" s="13">
@@ -28743,11 +28898,11 @@
         <v>6000</v>
       </c>
       <c r="H60" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16000</v>
       </c>
       <c r="I60" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199996</v>
       </c>
       <c r="J60" s="13">
@@ -28784,11 +28939,11 @@
         <v>6165</v>
       </c>
       <c r="H61" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23115</v>
       </c>
       <c r="I61" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199140</v>
       </c>
       <c r="J61" s="13">
@@ -28825,11 +28980,11 @@
         <v>7187</v>
       </c>
       <c r="H62" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23171</v>
       </c>
       <c r="I62" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196920</v>
       </c>
       <c r="J62" s="13">
@@ -28866,11 +29021,11 @@
         <v>5998</v>
       </c>
       <c r="H63" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>35990</v>
       </c>
       <c r="I63" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199944</v>
       </c>
       <c r="J63" s="13">
@@ -28907,11 +29062,11 @@
         <v>8383</v>
       </c>
       <c r="H64" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23818</v>
       </c>
       <c r="I64" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>158640</v>
       </c>
       <c r="J64" s="13">
@@ -28948,11 +29103,11 @@
         <v>6165</v>
       </c>
       <c r="H65" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23115</v>
       </c>
       <c r="I65" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199140</v>
       </c>
       <c r="J65" s="13">
@@ -28989,11 +29144,11 @@
         <v>5841</v>
       </c>
       <c r="H66" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>25581</v>
       </c>
       <c r="I66" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>197120</v>
       </c>
       <c r="J66" s="13">
@@ -29030,11 +29185,11 @@
         <v>6476</v>
       </c>
       <c r="H67" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>25852</v>
       </c>
       <c r="I67" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>195960</v>
       </c>
       <c r="J67" s="13">
@@ -29071,11 +29226,11 @@
         <v>5177</v>
       </c>
       <c r="H68" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>15893</v>
       </c>
       <c r="I68" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>180929</v>
       </c>
       <c r="J68" s="13">
@@ -29112,11 +29267,11 @@
         <v>5173</v>
       </c>
       <c r="H69" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>15863</v>
       </c>
       <c r="I69" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>197060</v>
       </c>
       <c r="J69" s="13">
@@ -29153,11 +29308,11 @@
         <v>8982</v>
       </c>
       <c r="H70" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19111</v>
       </c>
       <c r="I70" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199588</v>
       </c>
       <c r="J70" s="13">
@@ -29194,11 +29349,11 @@
         <v>6145</v>
       </c>
       <c r="H71" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I71" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J71" s="13">
@@ -29235,11 +29390,11 @@
         <v>6145</v>
       </c>
       <c r="H72" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I72" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J72" s="13">
@@ -29254,10 +29409,10 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="198">
+      <c r="A73" s="175">
         <v>69</v>
       </c>
-      <c r="B73" s="200" t="s">
+      <c r="B73" s="177" t="s">
         <v>267</v>
       </c>
       <c r="C73" s="58">
@@ -29276,11 +29431,11 @@
         <v>5945</v>
       </c>
       <c r="H73" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>22895</v>
       </c>
       <c r="I73" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>197160</v>
       </c>
       <c r="J73" s="13">
@@ -29290,7 +29445,7 @@
         <v>43058</v>
       </c>
       <c r="L73" s="3"/>
-      <c r="M73" s="197" t="s">
+      <c r="M73" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -29317,11 +29472,11 @@
         <v>4076</v>
       </c>
       <c r="H74" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23595</v>
       </c>
       <c r="I74" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>197989</v>
       </c>
       <c r="J74" s="13">
@@ -29358,11 +29513,11 @@
         <v>8989</v>
       </c>
       <c r="H75" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19177</v>
       </c>
       <c r="I75" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199760</v>
       </c>
       <c r="J75" s="13">
@@ -29399,11 +29554,11 @@
         <v>3987</v>
       </c>
       <c r="H76" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>11990</v>
       </c>
       <c r="I76" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>189020</v>
       </c>
       <c r="J76" s="13">
@@ -29440,11 +29595,11 @@
         <v>4825</v>
       </c>
       <c r="H77" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>18416</v>
       </c>
       <c r="I77" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>192369</v>
       </c>
       <c r="J77" s="13">
@@ -29481,11 +29636,11 @@
         <v>6089</v>
       </c>
       <c r="H78" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17182</v>
       </c>
       <c r="I78" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196649</v>
       </c>
       <c r="J78" s="13">
@@ -29522,11 +29677,11 @@
         <v>6089</v>
       </c>
       <c r="H79" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17182</v>
       </c>
       <c r="I79" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196649</v>
       </c>
       <c r="J79" s="13">
@@ -29563,11 +29718,11 @@
         <v>6089</v>
       </c>
       <c r="H80" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17182</v>
       </c>
       <c r="I80" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196649</v>
       </c>
       <c r="J80" s="13">
@@ -29604,11 +29759,11 @@
         <v>6089</v>
       </c>
       <c r="H81" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17182</v>
       </c>
       <c r="I81" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196649</v>
       </c>
       <c r="J81" s="13">
@@ -29645,11 +29800,11 @@
         <v>6089</v>
       </c>
       <c r="H82" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17182</v>
       </c>
       <c r="I82" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196649</v>
       </c>
       <c r="J82" s="13">
@@ -29686,11 +29841,11 @@
         <v>5999</v>
       </c>
       <c r="H83" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>35996</v>
       </c>
       <c r="I83" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199980</v>
       </c>
       <c r="J83" s="13">
@@ -29708,7 +29863,7 @@
       <c r="A84" s="19">
         <v>80</v>
       </c>
-      <c r="B84" s="202" t="s">
+      <c r="B84" s="179" t="s">
         <v>732</v>
       </c>
       <c r="C84" s="58">
@@ -29727,11 +29882,11 @@
         <v>9000</v>
       </c>
       <c r="H84" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19200</v>
       </c>
       <c r="I84" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>200000</v>
       </c>
       <c r="J84" s="13">
@@ -29768,11 +29923,11 @@
         <v>6145</v>
       </c>
       <c r="H85" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I85" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198260</v>
       </c>
       <c r="J85" s="13">
@@ -29809,11 +29964,11 @@
         <v>4939</v>
       </c>
       <c r="H86" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>10207</v>
       </c>
       <c r="I86" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196850</v>
       </c>
       <c r="J86" s="13">
@@ -29850,11 +30005,11 @@
         <v>6145</v>
       </c>
       <c r="H87" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I87" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J87" s="13">
@@ -29891,11 +30046,11 @@
         <v>4487</v>
       </c>
       <c r="H88" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7540</v>
       </c>
       <c r="I88" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196749</v>
       </c>
       <c r="J88" s="13">
@@ -29932,11 +30087,11 @@
         <v>8988</v>
       </c>
       <c r="H89" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I89" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J89" s="13">
@@ -29973,11 +30128,11 @@
         <v>6145</v>
       </c>
       <c r="H90" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I90" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>197560</v>
       </c>
       <c r="J90" s="13">
@@ -30014,11 +30169,11 @@
         <v>6145</v>
       </c>
       <c r="H91" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I91" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198260</v>
       </c>
       <c r="J91" s="13">
@@ -30055,11 +30210,11 @@
         <v>8988</v>
       </c>
       <c r="H92" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I92" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J92" s="13">
@@ -30096,11 +30251,11 @@
         <v>8988</v>
       </c>
       <c r="H93" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I93" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J93" s="13">
@@ -30137,11 +30292,11 @@
         <v>8988</v>
       </c>
       <c r="H94" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I94" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J94" s="13">
@@ -30178,11 +30333,11 @@
         <v>4517</v>
       </c>
       <c r="H95" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14102</v>
       </c>
       <c r="I95" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196500</v>
       </c>
       <c r="J95" s="13">
@@ -30219,11 +30374,11 @@
         <v>8988</v>
       </c>
       <c r="H96" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I96" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J96" s="13">
@@ -30260,11 +30415,11 @@
         <v>4517</v>
       </c>
       <c r="H97" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14102</v>
       </c>
       <c r="I97" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196500</v>
       </c>
       <c r="J97" s="13">
@@ -30301,11 +30456,11 @@
         <v>8988</v>
       </c>
       <c r="H98" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I98" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J98" s="13">
@@ -30342,11 +30497,11 @@
         <v>6145</v>
       </c>
       <c r="H99" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I99" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198260</v>
       </c>
       <c r="J99" s="13">
@@ -30383,11 +30538,11 @@
         <v>6085</v>
       </c>
       <c r="H100" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16935</v>
       </c>
       <c r="I100" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199000</v>
       </c>
       <c r="J100" s="13">
@@ -30424,11 +30579,11 @@
         <v>6145</v>
       </c>
       <c r="H101" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23095</v>
       </c>
       <c r="I101" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J101" s="13">
@@ -30465,11 +30620,11 @@
         <v>8988</v>
       </c>
       <c r="H102" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I102" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J102" s="13">
@@ -30506,11 +30661,11 @@
         <v>8988</v>
       </c>
       <c r="H103" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I103" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J103" s="13">
@@ -30547,11 +30702,11 @@
         <v>6569</v>
       </c>
       <c r="H104" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23519</v>
       </c>
       <c r="I104" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J104" s="13">
@@ -30588,11 +30743,11 @@
         <v>8988</v>
       </c>
       <c r="H105" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19175</v>
       </c>
       <c r="I105" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>199729</v>
       </c>
       <c r="J105" s="13">
@@ -30629,11 +30784,11 @@
         <v>9000</v>
       </c>
       <c r="H106" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19200</v>
       </c>
       <c r="I106" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>200000</v>
       </c>
       <c r="J106" s="13">
@@ -30670,11 +30825,11 @@
         <v>6569</v>
       </c>
       <c r="H107" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>23519</v>
       </c>
       <c r="I107" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>198960</v>
       </c>
       <c r="J107" s="13">
@@ -30711,11 +30866,11 @@
         <v>4472</v>
       </c>
       <c r="H108" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>13330</v>
       </c>
       <c r="I108" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196749</v>
       </c>
       <c r="J108" s="13">
@@ -30752,11 +30907,11 @@
         <v>4517</v>
       </c>
       <c r="H109" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14102</v>
       </c>
       <c r="I109" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>196500</v>
       </c>
       <c r="J109" s="13">
@@ -30793,11 +30948,11 @@
         <v>4097</v>
       </c>
       <c r="H110" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>13682</v>
       </c>
       <c r="I110" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>192720</v>
       </c>
       <c r="J110" s="13">
@@ -30834,11 +30989,11 @@
         <v>4397</v>
       </c>
       <c r="H111" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>13982</v>
       </c>
       <c r="I111" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>195420</v>
       </c>
       <c r="J111" s="13">
@@ -30875,11 +31030,11 @@
         <v>8921</v>
       </c>
       <c r="H112" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19084</v>
       </c>
       <c r="I112" s="53">
-        <f t="shared" ref="I112:I178" si="9">E112-H112</f>
+        <f t="shared" ref="I112:I178" si="15">E112-H112</f>
         <v>198250</v>
       </c>
       <c r="J112" s="13">
@@ -30893,7 +31048,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A113" s="19">
         <v>106</v>
       </c>
@@ -30916,11 +31071,11 @@
         <v>6609</v>
       </c>
       <c r="H113" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>26039</v>
       </c>
       <c r="I113" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199320</v>
       </c>
       <c r="J113" s="13">
@@ -30934,7 +31089,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="19">
         <v>106</v>
       </c>
@@ -30957,11 +31112,11 @@
         <v>2982</v>
       </c>
       <c r="H114" s="53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>11690</v>
       </c>
       <c r="I114" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198097</v>
       </c>
       <c r="J114" s="13">
@@ -30975,7 +31130,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="115" spans="1:13" s="69" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" s="69" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A115" s="78">
         <v>107</v>
       </c>
@@ -30998,11 +31153,11 @@
         <v>6609</v>
       </c>
       <c r="H115" s="66">
-        <f t="shared" ref="H115:H344" si="10">F115+G115</f>
+        <f t="shared" ref="H115:H344" si="16">F115+G115</f>
         <v>26039</v>
       </c>
       <c r="I115" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199320</v>
       </c>
       <c r="J115" s="67">
@@ -31012,11 +31167,12 @@
         <v>344</v>
       </c>
       <c r="L115" s="129"/>
-      <c r="M115" s="196" t="s">
+      <c r="M115" s="173" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" s="69" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="T115" s="205"/>
+    </row>
+    <row r="116" spans="1:20" s="69" customFormat="1" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A116" s="78">
         <v>108</v>
       </c>
@@ -31039,11 +31195,11 @@
         <v>6472</v>
       </c>
       <c r="H116" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>25422</v>
       </c>
       <c r="I116" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>195440</v>
       </c>
       <c r="J116" s="67">
@@ -31053,11 +31209,12 @@
         <v>346</v>
       </c>
       <c r="L116" s="129"/>
-      <c r="M116" s="196" t="s">
+      <c r="M116" s="173" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T116" s="205"/>
+    </row>
+    <row r="117" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <v>109</v>
       </c>
@@ -31080,11 +31237,11 @@
         <v>6026</v>
       </c>
       <c r="H117" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16256</v>
       </c>
       <c r="I117" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199599</v>
       </c>
       <c r="J117" s="13">
@@ -31098,7 +31255,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A118" s="19">
         <v>110</v>
       </c>
@@ -31121,11 +31278,11 @@
         <v>6609</v>
       </c>
       <c r="H118" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>26039</v>
       </c>
       <c r="I118" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199320</v>
       </c>
       <c r="J118" s="13">
@@ -31139,7 +31296,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A119" s="19">
         <v>111</v>
       </c>
@@ -31162,11 +31319,11 @@
         <v>5801</v>
       </c>
       <c r="H119" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24033</v>
       </c>
       <c r="I119" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198230</v>
       </c>
       <c r="J119" s="13">
@@ -31180,7 +31337,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="19">
         <v>112</v>
       </c>
@@ -31203,11 +31360,11 @@
         <v>4191</v>
       </c>
       <c r="H120" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15044</v>
       </c>
       <c r="I120" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>195529</v>
       </c>
       <c r="J120" s="13">
@@ -31221,7 +31378,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="19">
         <v>113</v>
       </c>
@@ -31244,11 +31401,11 @@
         <v>3625</v>
       </c>
       <c r="H121" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>12978</v>
       </c>
       <c r="I121" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198369</v>
       </c>
       <c r="J121" s="13">
@@ -31262,7 +31419,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A122" s="19">
         <v>114</v>
       </c>
@@ -31285,11 +31442,11 @@
         <v>5513</v>
       </c>
       <c r="H122" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17991</v>
       </c>
       <c r="I122" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>195940</v>
       </c>
       <c r="J122" s="13">
@@ -31303,7 +31460,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A123" s="19">
         <v>115</v>
       </c>
@@ -31326,11 +31483,11 @@
         <v>6609</v>
       </c>
       <c r="H123" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>26039</v>
       </c>
       <c r="I123" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199320</v>
       </c>
       <c r="J123" s="13">
@@ -31344,7 +31501,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="19">
         <v>116</v>
       </c>
@@ -31367,11 +31524,11 @@
         <v>9000</v>
       </c>
       <c r="H124" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I124" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J124" s="13">
@@ -31385,7 +31542,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A125" s="19">
         <v>117</v>
       </c>
@@ -31408,11 +31565,11 @@
         <v>4092</v>
       </c>
       <c r="H125" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>11208</v>
       </c>
       <c r="I125" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>185210</v>
       </c>
       <c r="J125" s="13">
@@ -31426,7 +31583,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A126" s="19">
         <v>118</v>
       </c>
@@ -31449,11 +31606,11 @@
         <v>6593</v>
       </c>
       <c r="H126" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21743</v>
       </c>
       <c r="I126" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>196840</v>
       </c>
       <c r="J126" s="13">
@@ -31467,7 +31624,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="19">
         <v>119</v>
       </c>
@@ -31490,11 +31647,11 @@
         <v>9000</v>
       </c>
       <c r="H127" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I127" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J127" s="13">
@@ -31508,7 +31665,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A128" s="19">
         <v>120</v>
       </c>
@@ -31531,11 +31688,11 @@
         <v>6687</v>
       </c>
       <c r="H128" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>26106</v>
       </c>
       <c r="I128" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199966</v>
       </c>
       <c r="J128" s="13">
@@ -31572,11 +31729,11 @@
         <v>450</v>
       </c>
       <c r="H129" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>11400</v>
       </c>
       <c r="I129" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199000</v>
       </c>
       <c r="J129" s="13">
@@ -31613,11 +31770,11 @@
         <v>9000</v>
       </c>
       <c r="H130" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I130" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J130" s="13">
@@ -31654,11 +31811,11 @@
         <v>6687</v>
       </c>
       <c r="H131" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>26106</v>
       </c>
       <c r="I131" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199966</v>
       </c>
       <c r="J131" s="13">
@@ -31695,11 +31852,11 @@
         <v>9000</v>
       </c>
       <c r="H132" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I132" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J132" s="13">
@@ -31736,11 +31893,11 @@
         <v>7025</v>
       </c>
       <c r="H133" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22175</v>
       </c>
       <c r="I133" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>196840</v>
       </c>
       <c r="J133" s="13">
@@ -31777,11 +31934,11 @@
         <v>4621</v>
       </c>
       <c r="H134" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14724</v>
       </c>
       <c r="I134" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199949</v>
       </c>
       <c r="J134" s="13">
@@ -31818,11 +31975,11 @@
         <v>4517</v>
       </c>
       <c r="H135" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14702</v>
       </c>
       <c r="I135" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199420</v>
       </c>
       <c r="J135" s="13">
@@ -31859,11 +32016,11 @@
         <v>4472</v>
       </c>
       <c r="H136" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13930</v>
       </c>
       <c r="I136" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199669</v>
       </c>
       <c r="J136" s="13">
@@ -31900,11 +32057,11 @@
         <v>6569</v>
       </c>
       <c r="H137" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>25999</v>
       </c>
       <c r="I137" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J137" s="13">
@@ -31941,11 +32098,11 @@
         <v>5801</v>
       </c>
       <c r="H138" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24033</v>
       </c>
       <c r="I138" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198230</v>
       </c>
       <c r="J138" s="13">
@@ -31982,11 +32139,11 @@
         <v>5513</v>
       </c>
       <c r="H139" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17991</v>
       </c>
       <c r="I139" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>195940</v>
       </c>
       <c r="J139" s="13">
@@ -32023,11 +32180,11 @@
         <v>6569</v>
       </c>
       <c r="H140" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I140" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J140" s="13">
@@ -32064,11 +32221,11 @@
         <v>6441</v>
       </c>
       <c r="H141" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22034</v>
       </c>
       <c r="I141" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>196708</v>
       </c>
       <c r="J141" s="13">
@@ -32105,11 +32262,11 @@
         <v>9000</v>
       </c>
       <c r="H142" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I142" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J142" s="13">
@@ -32146,11 +32303,11 @@
         <v>4007</v>
       </c>
       <c r="H143" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15242</v>
       </c>
       <c r="I143" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199415</v>
       </c>
       <c r="J143" s="13">
@@ -32187,11 +32344,11 @@
         <v>4728</v>
       </c>
       <c r="H144" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16368</v>
       </c>
       <c r="I144" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J144" s="13">
@@ -32228,11 +32385,11 @@
         <v>2454</v>
       </c>
       <c r="H145" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9570</v>
       </c>
       <c r="I145" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>185209</v>
       </c>
       <c r="J145" s="13">
@@ -32269,11 +32426,11 @@
         <v>4464</v>
       </c>
       <c r="H146" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16584</v>
       </c>
       <c r="I146" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199960</v>
       </c>
       <c r="J146" s="13">
@@ -32310,11 +32467,11 @@
         <v>9000</v>
       </c>
       <c r="H147" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I147" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J147" s="13">
@@ -32351,11 +32508,11 @@
         <v>6569</v>
       </c>
       <c r="H148" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I148" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J148" s="13">
@@ -32392,11 +32549,11 @@
         <v>9000</v>
       </c>
       <c r="H149" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I149" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J149" s="13">
@@ -32433,11 +32590,11 @@
         <v>6593</v>
       </c>
       <c r="H150" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21743</v>
       </c>
       <c r="I150" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>196840</v>
       </c>
       <c r="J150" s="13">
@@ -32474,11 +32631,11 @@
         <v>6569</v>
       </c>
       <c r="H151" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I151" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J151" s="13">
@@ -32515,11 +32672,11 @@
         <v>4728</v>
       </c>
       <c r="H152" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16368</v>
       </c>
       <c r="I152" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J152" s="13">
@@ -32556,11 +32713,11 @@
         <v>6569</v>
       </c>
       <c r="H153" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I153" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J153" s="13">
@@ -32597,11 +32754,11 @@
         <v>6029</v>
       </c>
       <c r="H154" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16265</v>
       </c>
       <c r="I154" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199725</v>
       </c>
       <c r="J154" s="13">
@@ -32638,11 +32795,11 @@
         <v>6569</v>
       </c>
       <c r="H155" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I155" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J155" s="13">
@@ -32679,11 +32836,11 @@
         <v>6593</v>
       </c>
       <c r="H156" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21743</v>
       </c>
       <c r="I156" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>196840</v>
       </c>
       <c r="J156" s="13">
@@ -32720,11 +32877,11 @@
         <v>6569</v>
       </c>
       <c r="H157" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I157" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J157" s="13">
@@ -32761,11 +32918,11 @@
         <v>6569</v>
       </c>
       <c r="H158" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I158" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J158" s="13">
@@ -32802,11 +32959,11 @@
         <v>5986</v>
       </c>
       <c r="H159" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22170</v>
       </c>
       <c r="I159" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>195920</v>
       </c>
       <c r="J159" s="13">
@@ -32843,11 +33000,11 @@
         <v>9000</v>
       </c>
       <c r="H160" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I160" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J160" s="13">
@@ -32884,11 +33041,11 @@
         <v>4607</v>
       </c>
       <c r="H161" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14642</v>
       </c>
       <c r="I161" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199500</v>
       </c>
       <c r="J161" s="13">
@@ -32925,11 +33082,11 @@
         <v>4607</v>
       </c>
       <c r="H162" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14642</v>
       </c>
       <c r="I162" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199500</v>
       </c>
       <c r="J162" s="13">
@@ -32966,11 +33123,11 @@
         <v>9000</v>
       </c>
       <c r="H163" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I163" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J163" s="13">
@@ -33007,11 +33164,11 @@
         <v>6569</v>
       </c>
       <c r="H164" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I164" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J164" s="13">
@@ -33048,11 +33205,11 @@
         <v>4568</v>
       </c>
       <c r="H165" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13906</v>
       </c>
       <c r="I165" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199949</v>
       </c>
       <c r="J165" s="13">
@@ -33089,11 +33246,11 @@
         <v>4671</v>
       </c>
       <c r="H166" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15524</v>
       </c>
       <c r="I166" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199849</v>
       </c>
       <c r="J166" s="13">
@@ -33130,11 +33287,11 @@
         <v>9000</v>
       </c>
       <c r="H167" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I167" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J167" s="13">
@@ -33171,11 +33328,11 @@
         <v>6569</v>
       </c>
       <c r="H168" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I168" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>198960</v>
       </c>
       <c r="J168" s="13">
@@ -33212,11 +33369,11 @@
         <v>6290</v>
       </c>
       <c r="H169" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21957</v>
       </c>
       <c r="I169" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>196380</v>
       </c>
       <c r="J169" s="13">
@@ -33253,11 +33410,11 @@
         <v>6375</v>
       </c>
       <c r="H170" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I170" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>197360</v>
       </c>
       <c r="J170" s="13">
@@ -33294,11 +33451,11 @@
         <v>9000</v>
       </c>
       <c r="H171" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I171" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J171" s="13">
@@ -33335,11 +33492,11 @@
         <v>4290</v>
       </c>
       <c r="H172" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16740</v>
       </c>
       <c r="I172" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J172" s="13">
@@ -33376,11 +33533,11 @@
         <v>9000</v>
       </c>
       <c r="H173" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I173" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J173" s="13">
@@ -33417,11 +33574,11 @@
         <v>9000</v>
       </c>
       <c r="H174" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I174" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J174" s="13">
@@ -33458,11 +33615,11 @@
         <v>6614</v>
       </c>
       <c r="H175" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22394</v>
       </c>
       <c r="I175" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199960</v>
       </c>
       <c r="J175" s="13">
@@ -33499,11 +33656,11 @@
         <v>6614</v>
       </c>
       <c r="H176" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22394</v>
       </c>
       <c r="I176" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>199960</v>
       </c>
       <c r="J176" s="13">
@@ -33540,11 +33697,11 @@
         <v>9000</v>
       </c>
       <c r="H177" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I177" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>200000</v>
       </c>
       <c r="J177" s="13">
@@ -33581,11 +33738,11 @@
         <v>6454</v>
       </c>
       <c r="H178" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21859</v>
       </c>
       <c r="I178" s="53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>197100</v>
       </c>
       <c r="J178" s="13">
@@ -33622,11 +33779,11 @@
         <v>9000</v>
       </c>
       <c r="H179" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I179" s="53">
-        <f t="shared" ref="I179:I344" si="11">E179-H179</f>
+        <f t="shared" ref="I179:I344" si="17">E179-H179</f>
         <v>200000</v>
       </c>
       <c r="J179" s="13">
@@ -33663,11 +33820,11 @@
         <v>6592</v>
       </c>
       <c r="H180" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22297</v>
       </c>
       <c r="I180" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199460</v>
       </c>
       <c r="J180" s="13">
@@ -33704,11 +33861,11 @@
         <v>9000</v>
       </c>
       <c r="H181" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I181" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J181" s="13">
@@ -33745,11 +33902,11 @@
         <v>6592</v>
       </c>
       <c r="H182" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22297</v>
       </c>
       <c r="I182" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199459</v>
       </c>
       <c r="J182" s="13">
@@ -33786,11 +33943,11 @@
         <v>6345</v>
       </c>
       <c r="H183" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22477</v>
       </c>
       <c r="I183" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198475</v>
       </c>
       <c r="J183" s="13">
@@ -33827,11 +33984,11 @@
         <v>8849</v>
       </c>
       <c r="H184" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18682</v>
       </c>
       <c r="I184" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>196650</v>
       </c>
       <c r="J184" s="13">
@@ -33868,11 +34025,11 @@
         <v>6375</v>
       </c>
       <c r="H185" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I185" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J185" s="13">
@@ -33909,11 +34066,11 @@
         <v>8988</v>
       </c>
       <c r="H186" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19275</v>
       </c>
       <c r="I186" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199740</v>
       </c>
       <c r="J186" s="13">
@@ -33950,11 +34107,11 @@
         <v>6614</v>
       </c>
       <c r="H187" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22394</v>
       </c>
       <c r="I187" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199960</v>
       </c>
       <c r="J187" s="13">
@@ -33991,11 +34148,11 @@
         <v>9000</v>
       </c>
       <c r="H188" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I188" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J188" s="13">
@@ -34032,11 +34189,11 @@
         <v>6614</v>
       </c>
       <c r="H189" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22394</v>
       </c>
       <c r="I189" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199960</v>
       </c>
       <c r="J189" s="13">
@@ -34073,11 +34230,11 @@
         <v>6375</v>
       </c>
       <c r="H190" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I190" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J190" s="13">
@@ -34114,11 +34271,11 @@
         <v>6345</v>
       </c>
       <c r="H191" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22477</v>
       </c>
       <c r="I191" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198476</v>
       </c>
       <c r="J191" s="13">
@@ -34155,11 +34312,11 @@
         <v>6569</v>
       </c>
       <c r="H192" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I192" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198960</v>
       </c>
       <c r="J192" s="13">
@@ -34196,11 +34353,11 @@
         <v>5000</v>
       </c>
       <c r="H193" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="I193" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199995</v>
       </c>
       <c r="J193" s="13">
@@ -34237,11 +34394,11 @@
         <v>5801</v>
       </c>
       <c r="H194" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24033</v>
       </c>
       <c r="I194" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198229</v>
       </c>
       <c r="J194" s="13">
@@ -34278,11 +34435,11 @@
         <v>6386</v>
       </c>
       <c r="H195" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22043</v>
       </c>
       <c r="I195" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197740</v>
       </c>
       <c r="J195" s="13">
@@ -34319,11 +34476,11 @@
         <v>6345</v>
       </c>
       <c r="H196" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22477</v>
       </c>
       <c r="I196" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197776</v>
       </c>
       <c r="J196" s="13">
@@ -34360,11 +34517,11 @@
         <v>6569</v>
       </c>
       <c r="H197" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I197" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198960</v>
       </c>
       <c r="J197" s="13">
@@ -34379,10 +34536,10 @@
       </c>
     </row>
     <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A198" s="198">
+      <c r="A198" s="175">
         <v>188</v>
       </c>
-      <c r="B198" s="199" t="s">
+      <c r="B198" s="176" t="s">
         <v>567</v>
       </c>
       <c r="C198" s="58">
@@ -34401,11 +34558,11 @@
         <v>5974</v>
       </c>
       <c r="H198" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16363</v>
       </c>
       <c r="I198" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>139999</v>
       </c>
       <c r="J198" s="13">
@@ -34415,7 +34572,7 @@
         <v>565</v>
       </c>
       <c r="L198" s="3"/>
-      <c r="M198" s="197" t="s">
+      <c r="M198" s="174" t="s">
         <v>802</v>
       </c>
     </row>
@@ -34442,11 +34599,11 @@
         <v>5635</v>
       </c>
       <c r="H199" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21083</v>
       </c>
       <c r="I199" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199966</v>
       </c>
       <c r="J199" s="13">
@@ -34483,11 +34640,11 @@
         <v>9000</v>
       </c>
       <c r="H200" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I200" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J200" s="13">
@@ -34524,11 +34681,11 @@
         <v>4233</v>
       </c>
       <c r="H201" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15896</v>
       </c>
       <c r="I201" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199849</v>
       </c>
       <c r="J201" s="13">
@@ -34565,11 +34722,11 @@
         <v>4124</v>
       </c>
       <c r="H202" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14242</v>
       </c>
       <c r="I202" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199749</v>
       </c>
       <c r="J202" s="13">
@@ -34606,11 +34763,11 @@
         <v>6569</v>
       </c>
       <c r="H203" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I203" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198960</v>
       </c>
       <c r="J203" s="13">
@@ -34647,11 +34804,11 @@
         <v>5987</v>
       </c>
       <c r="H204" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>35920</v>
       </c>
       <c r="I204" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199549</v>
       </c>
       <c r="J204" s="13">
@@ -34688,11 +34845,11 @@
         <v>6593</v>
       </c>
       <c r="H205" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21743</v>
       </c>
       <c r="I205" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>196140</v>
       </c>
       <c r="J205" s="13">
@@ -34729,11 +34886,11 @@
         <v>4999</v>
       </c>
       <c r="H206" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14997</v>
       </c>
       <c r="I206" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199966</v>
       </c>
       <c r="J206" s="13">
@@ -34770,11 +34927,11 @@
         <v>6569</v>
       </c>
       <c r="H207" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22199</v>
       </c>
       <c r="I207" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198960</v>
       </c>
       <c r="J207" s="13">
@@ -34811,11 +34968,11 @@
         <v>8849</v>
       </c>
       <c r="H208" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18682</v>
       </c>
       <c r="I208" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>196650</v>
       </c>
       <c r="J208" s="13">
@@ -34852,11 +35009,11 @@
         <v>4999</v>
       </c>
       <c r="H209" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14997</v>
       </c>
       <c r="I209" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199966</v>
       </c>
       <c r="J209" s="13">
@@ -34893,11 +35050,11 @@
         <v>4819</v>
       </c>
       <c r="H210" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17914</v>
       </c>
       <c r="I210" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199500</v>
       </c>
       <c r="J210" s="13">
@@ -34934,11 +35091,11 @@
         <v>8457</v>
       </c>
       <c r="H211" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>32742</v>
       </c>
       <c r="I211" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197000</v>
       </c>
       <c r="J211" s="13">
@@ -34975,11 +35132,11 @@
         <v>6035</v>
       </c>
       <c r="H212" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22989</v>
       </c>
       <c r="I212" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199970</v>
       </c>
       <c r="J212" s="13">
@@ -35016,11 +35173,11 @@
         <v>2789</v>
       </c>
       <c r="H213" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14861</v>
       </c>
       <c r="I213" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199780</v>
       </c>
       <c r="J213" s="13">
@@ -35057,11 +35214,11 @@
         <v>9000</v>
       </c>
       <c r="H214" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I214" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J214" s="13">
@@ -35098,11 +35255,11 @@
         <v>6568</v>
       </c>
       <c r="H215" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I215" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J215" s="13">
@@ -35139,11 +35296,11 @@
         <v>5944</v>
       </c>
       <c r="H216" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22893</v>
       </c>
       <c r="I216" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197140</v>
       </c>
       <c r="J216" s="13">
@@ -35180,11 +35337,11 @@
         <v>5000</v>
       </c>
       <c r="H217" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15000</v>
       </c>
       <c r="I217" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199997</v>
       </c>
       <c r="J217" s="13">
@@ -35221,11 +35378,11 @@
         <v>6237</v>
       </c>
       <c r="H218" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22403</v>
       </c>
       <c r="I218" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198269</v>
       </c>
       <c r="J218" s="13">
@@ -35262,11 +35419,11 @@
         <v>5513</v>
       </c>
       <c r="H219" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17991</v>
       </c>
       <c r="I219" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195940</v>
       </c>
       <c r="J219" s="13">
@@ -35303,11 +35460,11 @@
         <v>4092</v>
       </c>
       <c r="H220" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>11208</v>
       </c>
       <c r="I220" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>185210</v>
       </c>
       <c r="J220" s="13">
@@ -35344,11 +35501,11 @@
         <v>7113</v>
       </c>
       <c r="H221" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20015</v>
       </c>
       <c r="I221" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199619</v>
       </c>
       <c r="J221" s="13">
@@ -35385,11 +35542,11 @@
         <v>6568</v>
       </c>
       <c r="H222" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I222" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J222" s="13">
@@ -35426,11 +35583,11 @@
         <v>7467</v>
       </c>
       <c r="H223" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19742</v>
       </c>
       <c r="I223" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199760</v>
       </c>
       <c r="J223" s="13">
@@ -35467,11 +35624,11 @@
         <v>6380</v>
       </c>
       <c r="H224" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I224" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199375</v>
       </c>
       <c r="J224" s="13">
@@ -35508,11 +35665,11 @@
         <v>7426</v>
       </c>
       <c r="H225" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>23373</v>
       </c>
       <c r="I225" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199270</v>
       </c>
       <c r="J225" s="13">
@@ -35549,11 +35706,11 @@
         <v>6368</v>
       </c>
       <c r="H226" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21995</v>
       </c>
       <c r="I226" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197140</v>
       </c>
       <c r="J226" s="13">
@@ -35590,11 +35747,11 @@
         <v>6568</v>
       </c>
       <c r="H227" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I227" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J227" s="13">
@@ -35631,11 +35788,11 @@
         <v>5000</v>
       </c>
       <c r="H228" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14999</v>
       </c>
       <c r="I228" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199983</v>
       </c>
       <c r="J228" s="13">
@@ -35672,11 +35829,11 @@
         <v>6380</v>
       </c>
       <c r="H229" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I229" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198675</v>
       </c>
       <c r="J229" s="13">
@@ -35713,11 +35870,11 @@
         <v>3641</v>
       </c>
       <c r="H230" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18647</v>
       </c>
       <c r="I230" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199800</v>
       </c>
       <c r="J230" s="13">
@@ -35754,11 +35911,11 @@
         <v>4345</v>
       </c>
       <c r="H231" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14073</v>
       </c>
       <c r="I231" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199850</v>
       </c>
       <c r="J231" s="13">
@@ -35795,11 +35952,11 @@
         <v>10785</v>
       </c>
       <c r="H232" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24248</v>
       </c>
       <c r="I232" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199799</v>
       </c>
       <c r="J232" s="13">
@@ -35836,11 +35993,11 @@
         <v>5000</v>
       </c>
       <c r="H233" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>12275</v>
       </c>
       <c r="I233" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J233" s="13">
@@ -35877,11 +36034,11 @@
         <v>6568</v>
       </c>
       <c r="H234" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I234" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198240</v>
       </c>
       <c r="J234" s="13">
@@ -35918,11 +36075,11 @@
         <v>9000</v>
       </c>
       <c r="H235" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I235" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J235" s="13">
@@ -35959,11 +36116,11 @@
         <v>7421</v>
       </c>
       <c r="H236" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>23355</v>
       </c>
       <c r="I236" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199169</v>
       </c>
       <c r="J236" s="13">
@@ -35978,10 +36135,10 @@
       </c>
     </row>
     <row r="237" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A237" s="198">
+      <c r="A237" s="175">
         <v>227</v>
       </c>
-      <c r="B237" s="201" t="s">
+      <c r="B237" s="178" t="s">
         <v>625</v>
       </c>
       <c r="C237" s="58">
@@ -36000,11 +36157,11 @@
         <v>6413</v>
       </c>
       <c r="H237" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22190</v>
       </c>
       <c r="I237" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198140</v>
       </c>
       <c r="J237" s="13">
@@ -36014,7 +36171,7 @@
         <v>624</v>
       </c>
       <c r="L237" s="3"/>
-      <c r="M237" s="197" t="s">
+      <c r="M237" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -36041,11 +36198,11 @@
         <v>6375</v>
       </c>
       <c r="H238" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I238" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J238" s="13">
@@ -36082,11 +36239,11 @@
         <v>6375</v>
       </c>
       <c r="H239" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I239" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J239" s="13">
@@ -36123,11 +36280,11 @@
         <v>9000</v>
       </c>
       <c r="H240" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I240" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J240" s="13">
@@ -36142,10 +36299,10 @@
       </c>
     </row>
     <row r="241" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A241" s="198">
+      <c r="A241" s="175">
         <v>231</v>
       </c>
-      <c r="B241" s="201" t="s">
+      <c r="B241" s="178" t="s">
         <v>631</v>
       </c>
       <c r="C241" s="58">
@@ -36164,11 +36321,11 @@
         <v>6368</v>
       </c>
       <c r="H241" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21995</v>
       </c>
       <c r="I241" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197140</v>
       </c>
       <c r="J241" s="13">
@@ -36178,7 +36335,7 @@
         <v>628</v>
       </c>
       <c r="L241" s="3"/>
-      <c r="M241" s="197" t="s">
+      <c r="M241" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -36205,11 +36362,11 @@
         <v>6568</v>
       </c>
       <c r="H242" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I242" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J242" s="13">
@@ -36246,11 +36403,11 @@
         <v>4676</v>
       </c>
       <c r="H243" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19856</v>
       </c>
       <c r="I243" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199960</v>
       </c>
       <c r="J243" s="13">
@@ -36287,11 +36444,11 @@
         <v>6568</v>
       </c>
       <c r="H244" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I244" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J244" s="13">
@@ -36328,11 +36485,11 @@
         <v>6568</v>
       </c>
       <c r="H245" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I245" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J245" s="13">
@@ -36369,11 +36526,11 @@
         <v>9000</v>
       </c>
       <c r="H246" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I246" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J246" s="13">
@@ -36410,11 +36567,11 @@
         <v>4548</v>
       </c>
       <c r="H247" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16488</v>
       </c>
       <c r="I247" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199840</v>
       </c>
       <c r="J247" s="13">
@@ -36451,11 +36608,11 @@
         <v>4671</v>
       </c>
       <c r="H248" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15524</v>
       </c>
       <c r="I248" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199849</v>
       </c>
       <c r="J248" s="13">
@@ -36492,11 +36649,11 @@
         <v>5987</v>
       </c>
       <c r="H249" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>35920</v>
       </c>
       <c r="I249" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199549</v>
       </c>
       <c r="J249" s="13">
@@ -36533,11 +36690,11 @@
         <v>6380</v>
       </c>
       <c r="H250" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22456</v>
       </c>
       <c r="I250" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197276</v>
       </c>
       <c r="J250" s="13">
@@ -36574,11 +36731,11 @@
         <v>6380</v>
       </c>
       <c r="H251" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I251" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198675</v>
       </c>
       <c r="J251" s="13">
@@ -36615,11 +36772,11 @@
         <v>9000</v>
       </c>
       <c r="H252" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I252" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J252" s="13">
@@ -36656,11 +36813,11 @@
         <v>8428</v>
       </c>
       <c r="H253" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>33568</v>
       </c>
       <c r="I253" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J253" s="13">
@@ -36697,11 +36854,11 @@
         <v>4268</v>
       </c>
       <c r="H254" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17657</v>
       </c>
       <c r="I254" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199760</v>
       </c>
       <c r="J254" s="13">
@@ -36738,11 +36895,11 @@
         <v>6568</v>
       </c>
       <c r="H255" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I255" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J255" s="13">
@@ -36779,11 +36936,11 @@
         <v>6380</v>
       </c>
       <c r="H256" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I256" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199375</v>
       </c>
       <c r="J256" s="13">
@@ -36820,11 +36977,11 @@
         <v>6380</v>
       </c>
       <c r="H257" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I257" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197975</v>
       </c>
       <c r="J257" s="13">
@@ -36861,11 +37018,11 @@
         <v>6568</v>
       </c>
       <c r="H258" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I258" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J258" s="13">
@@ -36880,10 +37037,10 @@
       </c>
     </row>
     <row r="259" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A259" s="198">
+      <c r="A259" s="175">
         <v>249</v>
       </c>
-      <c r="B259" s="201" t="s">
+      <c r="B259" s="178" t="s">
         <v>655</v>
       </c>
       <c r="C259" s="58">
@@ -36902,11 +37059,11 @@
         <v>6413</v>
       </c>
       <c r="H259" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22190</v>
       </c>
       <c r="I259" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198140</v>
       </c>
       <c r="J259" s="13">
@@ -36916,7 +37073,7 @@
         <v>652</v>
       </c>
       <c r="L259" s="3"/>
-      <c r="M259" s="197" t="s">
+      <c r="M259" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -36943,11 +37100,11 @@
         <v>6375</v>
       </c>
       <c r="H260" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I260" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J260" s="13">
@@ -36984,11 +37141,11 @@
         <v>6390</v>
       </c>
       <c r="H261" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22064</v>
       </c>
       <c r="I261" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197849</v>
       </c>
       <c r="J261" s="13">
@@ -37003,10 +37160,10 @@
       </c>
     </row>
     <row r="262" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A262" s="198">
+      <c r="A262" s="175">
         <v>252</v>
       </c>
-      <c r="B262" s="201" t="s">
+      <c r="B262" s="178" t="s">
         <v>656</v>
       </c>
       <c r="C262" s="58">
@@ -37025,11 +37182,11 @@
         <v>6413</v>
       </c>
       <c r="H262" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22190</v>
       </c>
       <c r="I262" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198140</v>
       </c>
       <c r="J262" s="13">
@@ -37039,7 +37196,7 @@
         <v>654</v>
       </c>
       <c r="L262" s="3"/>
-      <c r="M262" s="197" t="s">
+      <c r="M262" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -37066,11 +37223,11 @@
         <v>6375</v>
       </c>
       <c r="H263" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I263" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J263" s="13">
@@ -37107,11 +37264,11 @@
         <v>6375</v>
       </c>
       <c r="H264" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I264" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J264" s="13">
@@ -37148,11 +37305,11 @@
         <v>6476</v>
       </c>
       <c r="H265" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21608</v>
       </c>
       <c r="I265" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199820</v>
       </c>
       <c r="J265" s="13">
@@ -37189,11 +37346,11 @@
         <v>9000</v>
       </c>
       <c r="H266" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I266" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J266" s="13">
@@ -37230,11 +37387,11 @@
         <v>7707</v>
       </c>
       <c r="H267" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22154</v>
       </c>
       <c r="I267" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199879</v>
       </c>
       <c r="J267" s="13">
@@ -37271,11 +37428,11 @@
         <v>6375</v>
       </c>
       <c r="H268" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I268" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J268" s="13">
@@ -37290,10 +37447,10 @@
       </c>
     </row>
     <row r="269" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A269" s="198">
+      <c r="A269" s="175">
         <v>259</v>
       </c>
-      <c r="B269" s="201" t="s">
+      <c r="B269" s="178" t="s">
         <v>667</v>
       </c>
       <c r="C269" s="58">
@@ -37312,11 +37469,11 @@
         <v>6413</v>
       </c>
       <c r="H269" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22190</v>
       </c>
       <c r="I269" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198140</v>
       </c>
       <c r="J269" s="13">
@@ -37326,7 +37483,7 @@
         <v>666</v>
       </c>
       <c r="L269" s="3"/>
-      <c r="M269" s="197" t="s">
+      <c r="M269" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -37353,11 +37510,11 @@
         <v>6568</v>
       </c>
       <c r="H270" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I270" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J270" s="13">
@@ -37394,11 +37551,11 @@
         <v>6579</v>
       </c>
       <c r="H271" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20622</v>
       </c>
       <c r="I271" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199820</v>
       </c>
       <c r="J271" s="13">
@@ -37435,11 +37592,11 @@
         <v>9000</v>
       </c>
       <c r="H272" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I272" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J272" s="13">
@@ -37476,11 +37633,11 @@
         <v>6375</v>
       </c>
       <c r="H273" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I273" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J273" s="13">
@@ -37495,10 +37652,10 @@
       </c>
     </row>
     <row r="274" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A274" s="198">
+      <c r="A274" s="175">
         <v>264</v>
       </c>
-      <c r="B274" s="201" t="s">
+      <c r="B274" s="178" t="s">
         <v>673</v>
       </c>
       <c r="C274" s="58">
@@ -37517,11 +37674,11 @@
         <v>6413</v>
       </c>
       <c r="H274" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22190</v>
       </c>
       <c r="I274" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198140</v>
       </c>
       <c r="J274" s="13">
@@ -37531,15 +37688,15 @@
         <v>674</v>
       </c>
       <c r="L274" s="3"/>
-      <c r="M274" s="197" t="s">
+      <c r="M274" s="174" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A275" s="198">
+      <c r="A275" s="175">
         <v>265</v>
       </c>
-      <c r="B275" s="201" t="s">
+      <c r="B275" s="178" t="s">
         <v>675</v>
       </c>
       <c r="C275" s="58">
@@ -37558,11 +37715,11 @@
         <v>6368</v>
       </c>
       <c r="H275" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21995</v>
       </c>
       <c r="I275" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197140</v>
       </c>
       <c r="J275" s="13">
@@ -37572,7 +37729,7 @@
         <v>674</v>
       </c>
       <c r="L275" s="3"/>
-      <c r="M275" s="197" t="s">
+      <c r="M275" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -37599,11 +37756,11 @@
         <v>6375</v>
       </c>
       <c r="H276" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I276" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J276" s="13">
@@ -37640,11 +37797,11 @@
         <v>6375</v>
       </c>
       <c r="H277" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I277" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J277" s="13">
@@ -37681,11 +37838,11 @@
         <v>6568</v>
       </c>
       <c r="H278" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I278" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J278" s="13">
@@ -37722,11 +37879,11 @@
         <v>6380</v>
       </c>
       <c r="H279" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I279" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198675</v>
       </c>
       <c r="J279" s="13">
@@ -37763,11 +37920,11 @@
         <v>6380</v>
       </c>
       <c r="H280" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I280" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195875</v>
       </c>
       <c r="J280" s="13">
@@ -37804,11 +37961,11 @@
         <v>7457</v>
       </c>
       <c r="H281" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18985</v>
       </c>
       <c r="I281" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199970</v>
       </c>
       <c r="J281" s="13">
@@ -37845,11 +38002,11 @@
         <v>6141</v>
       </c>
       <c r="H282" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24943</v>
       </c>
       <c r="I282" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195769</v>
       </c>
       <c r="J282" s="13">
@@ -37864,10 +38021,10 @@
       </c>
     </row>
     <row r="283" spans="1:13" ht="24" x14ac:dyDescent="0.3">
-      <c r="A283" s="198">
+      <c r="A283" s="175">
         <v>272</v>
       </c>
-      <c r="B283" s="201" t="s">
+      <c r="B283" s="178" t="s">
         <v>684</v>
       </c>
       <c r="C283" s="58">
@@ -37886,11 +38043,11 @@
         <v>6413</v>
       </c>
       <c r="H283" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22190</v>
       </c>
       <c r="I283" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198140</v>
       </c>
       <c r="J283" s="13">
@@ -37900,7 +38057,7 @@
         <v>680</v>
       </c>
       <c r="L283" s="3"/>
-      <c r="M283" s="197" t="s">
+      <c r="M283" s="174" t="s">
         <v>803</v>
       </c>
     </row>
@@ -37927,11 +38084,11 @@
         <v>9000</v>
       </c>
       <c r="H284" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I284" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J284" s="13">
@@ -37968,11 +38125,11 @@
         <v>9000</v>
       </c>
       <c r="H285" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I285" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J285" s="13">
@@ -38009,11 +38166,11 @@
         <v>6375</v>
       </c>
       <c r="H286" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I286" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J286" s="13">
@@ -38050,11 +38207,11 @@
         <v>7005</v>
       </c>
       <c r="H287" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>20168</v>
       </c>
       <c r="I287" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199919</v>
       </c>
       <c r="J287" s="13">
@@ -38091,11 +38248,11 @@
         <v>6568</v>
       </c>
       <c r="H288" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I288" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J288" s="13">
@@ -38132,11 +38289,11 @@
         <v>9000</v>
       </c>
       <c r="H289" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I289" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J289" s="13">
@@ -38173,11 +38330,11 @@
         <v>6380</v>
       </c>
       <c r="H290" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I290" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199375</v>
       </c>
       <c r="J290" s="13">
@@ -38214,11 +38371,11 @@
         <v>6391</v>
       </c>
       <c r="H291" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22093</v>
       </c>
       <c r="I291" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197640</v>
       </c>
       <c r="J291" s="13">
@@ -38255,11 +38412,11 @@
         <v>7327</v>
       </c>
       <c r="H292" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>23666</v>
       </c>
       <c r="I292" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199929</v>
       </c>
       <c r="J292" s="13">
@@ -38296,11 +38453,11 @@
         <v>6568</v>
       </c>
       <c r="H293" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I293" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J293" s="13">
@@ -38337,11 +38494,11 @@
         <v>6375</v>
       </c>
       <c r="H294" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I294" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J294" s="13">
@@ -38378,11 +38535,11 @@
         <v>9000</v>
       </c>
       <c r="H295" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I295" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J295" s="13">
@@ -38419,11 +38576,11 @@
         <v>6380</v>
       </c>
       <c r="H296" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I296" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197275</v>
       </c>
       <c r="J296" s="13">
@@ -38460,11 +38617,11 @@
         <v>6380</v>
       </c>
       <c r="H297" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I297" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195875</v>
       </c>
       <c r="J297" s="13">
@@ -38501,11 +38658,11 @@
         <v>6391</v>
       </c>
       <c r="H298" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22093</v>
       </c>
       <c r="I298" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197640</v>
       </c>
       <c r="J298" s="13">
@@ -38542,11 +38699,11 @@
         <v>9000</v>
       </c>
       <c r="H299" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I299" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J299" s="13">
@@ -38583,11 +38740,11 @@
         <v>6568</v>
       </c>
       <c r="H300" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I300" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J300" s="13">
@@ -38624,11 +38781,11 @@
         <v>6380</v>
       </c>
       <c r="H301" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I301" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197275</v>
       </c>
       <c r="J301" s="13">
@@ -38665,11 +38822,11 @@
         <v>5513</v>
       </c>
       <c r="H302" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17991</v>
       </c>
       <c r="I302" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195940</v>
       </c>
       <c r="J302" s="13">
@@ -38706,11 +38863,11 @@
         <v>5801</v>
       </c>
       <c r="H303" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24033</v>
       </c>
       <c r="I303" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198230</v>
       </c>
       <c r="J303" s="13">
@@ -38747,11 +38904,11 @@
         <v>2353</v>
       </c>
       <c r="H304" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9131</v>
       </c>
       <c r="I304" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>182960</v>
       </c>
       <c r="J304" s="13">
@@ -38788,11 +38945,11 @@
         <v>6568</v>
       </c>
       <c r="H305" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I305" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J305" s="13">
@@ -38829,11 +38986,11 @@
         <v>6375</v>
       </c>
       <c r="H306" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I306" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J306" s="13">
@@ -38870,11 +39027,11 @@
         <v>6375</v>
       </c>
       <c r="H307" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I307" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J307" s="13">
@@ -38911,11 +39068,11 @@
         <v>6368</v>
       </c>
       <c r="H308" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21995</v>
       </c>
       <c r="I308" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197140</v>
       </c>
       <c r="J308" s="13">
@@ -38952,11 +39109,11 @@
         <v>6380</v>
       </c>
       <c r="H309" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I309" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195175</v>
       </c>
       <c r="J309" s="13">
@@ -38993,11 +39150,11 @@
         <v>6380</v>
       </c>
       <c r="H310" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I310" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199375</v>
       </c>
       <c r="J310" s="13">
@@ -39034,11 +39191,11 @@
         <v>6375</v>
       </c>
       <c r="H311" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22035</v>
       </c>
       <c r="I311" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197360</v>
       </c>
       <c r="J311" s="13">
@@ -39075,11 +39232,11 @@
         <v>9000</v>
       </c>
       <c r="H312" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I312" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J312" s="13">
@@ -39116,11 +39273,11 @@
         <v>6380</v>
       </c>
       <c r="H313" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I313" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198675</v>
       </c>
       <c r="J313" s="13">
@@ -39157,11 +39314,11 @@
         <v>6568</v>
       </c>
       <c r="H314" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I314" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J314" s="13">
@@ -39198,11 +39355,11 @@
         <v>9000</v>
       </c>
       <c r="H315" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19200</v>
       </c>
       <c r="I315" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J315" s="13">
@@ -39239,11 +39396,11 @@
         <v>2353</v>
       </c>
       <c r="H316" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9131</v>
       </c>
       <c r="I316" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>182959</v>
       </c>
       <c r="J316" s="13">
@@ -39280,11 +39437,11 @@
         <v>5513</v>
       </c>
       <c r="H317" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17991</v>
       </c>
       <c r="I317" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195940</v>
       </c>
       <c r="J317" s="13">
@@ -39321,11 +39478,11 @@
         <v>5801</v>
       </c>
       <c r="H318" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>24033</v>
       </c>
       <c r="I318" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198230</v>
       </c>
       <c r="J318" s="13">
@@ -39362,11 +39519,11 @@
         <v>6568</v>
       </c>
       <c r="H319" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I319" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J319" s="13">
@@ -39403,11 +39560,11 @@
         <v>6380</v>
       </c>
       <c r="H320" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I320" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195875</v>
       </c>
       <c r="J320" s="13">
@@ -39444,11 +39601,11 @@
         <v>6380</v>
       </c>
       <c r="H321" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I321" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>197275</v>
       </c>
       <c r="J321" s="13">
@@ -39485,11 +39642,11 @@
         <v>6380</v>
       </c>
       <c r="H322" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22457</v>
       </c>
       <c r="I322" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198675</v>
       </c>
       <c r="J322" s="13">
@@ -39526,11 +39683,11 @@
         <v>6568</v>
       </c>
       <c r="H323" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I323" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J323" s="13">
@@ -39567,11 +39724,11 @@
         <v>6568</v>
       </c>
       <c r="H324" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22195</v>
       </c>
       <c r="I324" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198940</v>
       </c>
       <c r="J324" s="13">
@@ -39608,11 +39765,11 @@
         <v>5120</v>
       </c>
       <c r="H325" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15994</v>
       </c>
       <c r="I325" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>160670</v>
       </c>
       <c r="J325" s="13">
@@ -39649,11 +39806,11 @@
         <v>5977</v>
       </c>
       <c r="H326" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>22911</v>
       </c>
       <c r="I326" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195946</v>
       </c>
       <c r="J326" s="13">
@@ -39690,11 +39847,11 @@
         <v>5279</v>
       </c>
       <c r="H327" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21052</v>
       </c>
       <c r="I327" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>191460</v>
       </c>
       <c r="J327" s="13">
@@ -39731,11 +39888,11 @@
         <v>2301</v>
       </c>
       <c r="H328" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>7558</v>
       </c>
       <c r="I328" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>74530</v>
       </c>
       <c r="J328" s="13">
@@ -39772,11 +39929,11 @@
         <v>5177</v>
       </c>
       <c r="H329" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21859</v>
       </c>
       <c r="I329" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>183435</v>
       </c>
       <c r="J329" s="13">
@@ -39813,11 +39970,11 @@
         <v>5101</v>
       </c>
       <c r="H330" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15008</v>
       </c>
       <c r="I330" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>184530</v>
       </c>
       <c r="J330" s="13">
@@ -39854,11 +40011,11 @@
         <v>6335</v>
       </c>
       <c r="H331" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19914</v>
       </c>
       <c r="I331" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>162586</v>
       </c>
       <c r="J331" s="13">
@@ -39895,11 +40052,11 @@
         <v>8242</v>
       </c>
       <c r="H332" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21975</v>
       </c>
       <c r="I332" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198485</v>
       </c>
       <c r="J332" s="13">
@@ -39936,11 +40093,11 @@
         <v>8242</v>
       </c>
       <c r="H333" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>21975</v>
       </c>
       <c r="I333" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>198485</v>
       </c>
       <c r="J333" s="13">
@@ -39977,11 +40134,11 @@
         <v>5336</v>
       </c>
       <c r="H334" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16700</v>
       </c>
       <c r="I334" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>173960</v>
       </c>
       <c r="J334" s="13">
@@ -40018,11 +40175,11 @@
         <v>5428</v>
       </c>
       <c r="H335" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19155</v>
       </c>
       <c r="I335" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>160940</v>
       </c>
       <c r="J335" s="13">
@@ -40059,11 +40216,11 @@
         <v>8978</v>
       </c>
       <c r="H336" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19353</v>
       </c>
       <c r="I336" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199499</v>
       </c>
       <c r="J336" s="13">
@@ -40100,11 +40257,11 @@
         <v>6838</v>
       </c>
       <c r="H337" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>25695</v>
       </c>
       <c r="I337" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>195140</v>
       </c>
       <c r="J337" s="13">
@@ -40143,11 +40300,11 @@
         <v>5376</v>
       </c>
       <c r="H338" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16740</v>
       </c>
       <c r="I338" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>174320</v>
       </c>
       <c r="J338" s="13">
@@ -40184,11 +40341,11 @@
         <v>8993</v>
       </c>
       <c r="H339" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19316</v>
       </c>
       <c r="I339" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>199850</v>
       </c>
       <c r="J339" s="13">
@@ -40223,11 +40380,11 @@
         <v>4500</v>
       </c>
       <c r="H340" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>9500</v>
       </c>
       <c r="I340" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>100000</v>
       </c>
       <c r="J340" s="13">
@@ -40262,11 +40419,11 @@
         <v>5428</v>
       </c>
       <c r="H341" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19155</v>
       </c>
       <c r="I341" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>160940</v>
       </c>
       <c r="J341" s="13">
@@ -40301,11 +40458,11 @@
         <v>5428</v>
       </c>
       <c r="H342" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19155</v>
       </c>
       <c r="I342" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>160940</v>
       </c>
       <c r="J342" s="13">
@@ -40340,11 +40497,11 @@
         <v>5428</v>
       </c>
       <c r="H343" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19155</v>
       </c>
       <c r="I343" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>160940</v>
       </c>
       <c r="J343" s="13">
@@ -40379,11 +40536,11 @@
         <v>9014</v>
       </c>
       <c r="H344" s="53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19959</v>
       </c>
       <c r="I344" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="J344" s="13" t="s">
@@ -40467,18 +40624,18 @@
       <c r="K348" s="79"/>
     </row>
     <row r="349" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="174" t="s">
+      <c r="B349" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C349" s="175"/>
-      <c r="D349" s="175"/>
-      <c r="E349" s="175"/>
-      <c r="F349" s="175"/>
-      <c r="G349" s="175"/>
-      <c r="H349" s="175"/>
-      <c r="I349" s="175"/>
-      <c r="J349" s="175"/>
-      <c r="K349" s="176"/>
+      <c r="C349" s="192"/>
+      <c r="D349" s="192"/>
+      <c r="E349" s="192"/>
+      <c r="F349" s="192"/>
+      <c r="G349" s="192"/>
+      <c r="H349" s="192"/>
+      <c r="I349" s="192"/>
+      <c r="J349" s="192"/>
+      <c r="K349" s="193"/>
       <c r="L349" s="6"/>
     </row>
     <row r="350" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -40580,11 +40737,11 @@
         <v>5929</v>
       </c>
       <c r="H352" s="149">
-        <f t="shared" ref="H352:H353" si="12">G352+F352</f>
+        <f t="shared" ref="H352:H353" si="18">G352+F352</f>
         <v>20752</v>
       </c>
       <c r="I352" s="149">
-        <f t="shared" ref="I352:I373" si="13">E352-H352</f>
+        <f t="shared" ref="I352:I373" si="19">E352-H352</f>
         <v>275698</v>
       </c>
       <c r="J352" s="151">
@@ -40595,7 +40752,7 @@
       </c>
       <c r="L352" s="106"/>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="19">
         <v>3</v>
       </c>
@@ -40618,11 +40775,11 @@
         <v>5070</v>
       </c>
       <c r="H353" s="149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>17745</v>
       </c>
       <c r="I353" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>235755</v>
       </c>
       <c r="J353" s="151">
@@ -40633,7 +40790,7 @@
       </c>
       <c r="L353" s="106"/>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" s="19">
         <v>4</v>
       </c>
@@ -40660,7 +40817,7 @@
         <v>17640</v>
       </c>
       <c r="I354" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>234360</v>
       </c>
       <c r="J354" s="151">
@@ -40671,7 +40828,7 @@
       </c>
       <c r="L354" s="106"/>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="19">
         <v>5</v>
       </c>
@@ -40694,11 +40851,11 @@
         <v>2016</v>
       </c>
       <c r="H355" s="149">
-        <f t="shared" ref="H355:H373" si="14">G355+F355</f>
+        <f t="shared" ref="H355:H373" si="20">G355+F355</f>
         <v>7056</v>
       </c>
       <c r="I355" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>93744</v>
       </c>
       <c r="J355" s="151">
@@ -40709,7 +40866,7 @@
       </c>
       <c r="L355" s="106"/>
     </row>
-    <row r="356" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="19">
         <v>6</v>
       </c>
@@ -40732,11 +40889,11 @@
         <v>7560</v>
       </c>
       <c r="H356" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>26460</v>
       </c>
       <c r="I356" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>351540</v>
       </c>
       <c r="J356" s="151">
@@ -40747,7 +40904,7 @@
       </c>
       <c r="L356" s="106"/>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="19">
         <v>7</v>
       </c>
@@ -40770,11 +40927,11 @@
         <v>5040</v>
       </c>
       <c r="H357" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17640</v>
       </c>
       <c r="I357" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>234360</v>
       </c>
       <c r="J357" s="151">
@@ -40785,7 +40942,7 @@
       </c>
       <c r="L357" s="106"/>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="19">
         <v>8</v>
       </c>
@@ -40808,11 +40965,11 @@
         <v>5040</v>
       </c>
       <c r="H358" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>17640</v>
       </c>
       <c r="I358" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>234360</v>
       </c>
       <c r="J358" s="151">
@@ -40823,7 +40980,7 @@
       </c>
       <c r="L358" s="106"/>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="19">
         <v>9</v>
       </c>
@@ -40846,11 +41003,11 @@
         <v>5880</v>
       </c>
       <c r="H359" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20580</v>
       </c>
       <c r="I359" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>273420</v>
       </c>
       <c r="J359" s="151">
@@ -40861,7 +41018,7 @@
       </c>
       <c r="L359" s="106"/>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="19">
         <v>10</v>
       </c>
@@ -40884,11 +41041,11 @@
         <v>5880</v>
       </c>
       <c r="H360" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>20580</v>
       </c>
       <c r="I360" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>273420</v>
       </c>
       <c r="J360" s="151">
@@ -40899,7 +41056,7 @@
       </c>
       <c r="L360" s="106"/>
     </row>
-    <row r="361" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="19">
         <v>11</v>
       </c>
@@ -40922,11 +41079,11 @@
         <v>24780</v>
       </c>
       <c r="H361" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>47880</v>
       </c>
       <c r="I361" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>414120</v>
       </c>
       <c r="J361" s="151">
@@ -40937,7 +41094,7 @@
       </c>
       <c r="L361" s="106"/>
     </row>
-    <row r="362" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="19">
         <v>12</v>
       </c>
@@ -40960,11 +41117,11 @@
         <v>15120</v>
       </c>
       <c r="H362" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>40320</v>
       </c>
       <c r="I362" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>463680</v>
       </c>
       <c r="J362" s="151">
@@ -40975,7 +41132,7 @@
       </c>
       <c r="L362" s="106"/>
     </row>
-    <row r="363" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A363" s="19">
         <v>13</v>
       </c>
@@ -40998,11 +41155,11 @@
         <v>12600</v>
       </c>
       <c r="H363" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>44100</v>
       </c>
       <c r="I363" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>585900</v>
       </c>
       <c r="J363" s="151">
@@ -41013,7 +41170,7 @@
       </c>
       <c r="L363" s="106"/>
     </row>
-    <row r="364" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="19">
         <v>14</v>
       </c>
@@ -41036,11 +41193,11 @@
         <v>10080</v>
       </c>
       <c r="H364" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>35280</v>
       </c>
       <c r="I364" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>468720</v>
       </c>
       <c r="J364" s="151">
@@ -41051,7 +41208,7 @@
       </c>
       <c r="L364" s="106"/>
     </row>
-    <row r="365" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="19">
         <v>15</v>
       </c>
@@ -41074,11 +41231,11 @@
         <v>11760</v>
       </c>
       <c r="H365" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>41160</v>
       </c>
       <c r="I365" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>546840</v>
       </c>
       <c r="J365" s="151">
@@ -41089,7 +41246,7 @@
       </c>
       <c r="L365" s="106"/>
     </row>
-    <row r="366" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="19">
         <v>16</v>
       </c>
@@ -41112,11 +41269,11 @@
         <v>11760</v>
       </c>
       <c r="H366" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>41160</v>
       </c>
       <c r="I366" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>546840</v>
       </c>
       <c r="J366" s="151">
@@ -41127,7 +41284,7 @@
       </c>
       <c r="L366" s="106"/>
     </row>
-    <row r="367" spans="1:12" s="162" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" s="162" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="154">
         <v>17</v>
       </c>
@@ -41150,11 +41307,11 @@
         <v>258310</v>
       </c>
       <c r="H367" s="157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>544180</v>
       </c>
       <c r="I367" s="157">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5173220</v>
       </c>
       <c r="J367" s="159">
@@ -41164,8 +41321,9 @@
         <v>709</v>
       </c>
       <c r="L367" s="161"/>
-    </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T367" s="206"/>
+    </row>
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="19">
         <v>18</v>
       </c>
@@ -41188,11 +41346,11 @@
         <v>22008</v>
       </c>
       <c r="H368" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>36708</v>
       </c>
       <c r="I368" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>257292</v>
       </c>
       <c r="J368" s="151">
@@ -41203,7 +41361,7 @@
       </c>
       <c r="L368" s="106"/>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" s="19">
         <v>19</v>
       </c>
@@ -41226,11 +41384,11 @@
         <v>17640</v>
       </c>
       <c r="H369" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>61740</v>
       </c>
       <c r="I369" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>820260</v>
       </c>
       <c r="J369" s="151">
@@ -41241,7 +41399,7 @@
       </c>
       <c r="L369" s="106"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" s="19">
         <v>20</v>
       </c>
@@ -41264,11 +41422,11 @@
         <v>17640</v>
       </c>
       <c r="H370" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>47040</v>
       </c>
       <c r="I370" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>540960</v>
       </c>
       <c r="J370" s="151">
@@ -41279,7 +41437,7 @@
       </c>
       <c r="L370" s="106"/>
     </row>
-    <row r="371" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="19">
         <v>22</v>
       </c>
@@ -41302,11 +41460,11 @@
         <v>13104</v>
       </c>
       <c r="H371" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>29484</v>
       </c>
       <c r="I371" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>298116</v>
       </c>
       <c r="J371" s="151">
@@ -41317,7 +41475,7 @@
       </c>
       <c r="L371" s="106"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" s="19">
         <v>24</v>
       </c>
@@ -41340,11 +41498,11 @@
         <v>3780</v>
       </c>
       <c r="H372" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>10080</v>
       </c>
       <c r="I372" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>115920</v>
       </c>
       <c r="J372" s="151">
@@ -41355,7 +41513,7 @@
       </c>
       <c r="L372" s="106"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" s="19">
         <v>25</v>
       </c>
@@ -41376,11 +41534,11 @@
         <v>10080</v>
       </c>
       <c r="H373" s="149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>22680</v>
       </c>
       <c r="I373" s="149">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>229320</v>
       </c>
       <c r="J373" s="151">
@@ -41391,7 +41549,7 @@
       </c>
       <c r="L373" s="106"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B374" s="30"/>
       <c r="C374" s="18"/>
       <c r="D374" s="47"/>
@@ -41404,7 +41562,7 @@
       <c r="K374" s="113"/>
       <c r="L374" s="106"/>
     </row>
-    <row r="375" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="30"/>
       <c r="C375" s="19"/>
       <c r="D375" s="47"/>
@@ -41417,12 +41575,12 @@
       <c r="K375" s="114"/>
       <c r="L375" s="6"/>
     </row>
-    <row r="376" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B376" s="167" t="s">
+    <row r="376" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C376" s="167"/>
-      <c r="D376" s="167"/>
+      <c r="C376" s="184"/>
+      <c r="D376" s="184"/>
       <c r="E376" s="21">
         <f>SUM(E351:E375)</f>
         <v>14134035</v>
@@ -41436,7 +41594,7 @@
         <v>482083</v>
       </c>
       <c r="H376" s="21">
-        <f t="shared" ref="H376" si="15">F376+G376</f>
+        <f t="shared" ref="H376" si="21">F376+G376</f>
         <v>1188785</v>
       </c>
       <c r="I376" s="23">
@@ -41447,7 +41605,7 @@
       <c r="K376" s="90"/>
       <c r="L376" s="106"/>
     </row>
-    <row r="377" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="79"/>
       <c r="B377" s="118"/>
       <c r="C377" s="118"/>
@@ -41461,17 +41619,18 @@
       <c r="K377" s="121"/>
       <c r="L377" s="34"/>
     </row>
-    <row r="378" spans="1:12" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="79"/>
       <c r="H378" s="34"/>
       <c r="K378" s="34"/>
-    </row>
-    <row r="379" spans="1:12" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T378" s="43"/>
+    </row>
+    <row r="379" spans="1:20" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="79"/>
-      <c r="C379" s="165" t="s">
+      <c r="C379" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D379" s="166"/>
+      <c r="D379" s="183"/>
       <c r="E379" s="35">
         <f>I346+I376</f>
         <v>79481702</v>
@@ -41484,8 +41643,9 @@
         <f>F346+F376</f>
         <v>5659360</v>
       </c>
-    </row>
-    <row r="380" spans="1:12" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T379" s="43"/>
+    </row>
+    <row r="380" spans="1:20" s="31" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="79"/>
       <c r="C380" s="31" t="s">
         <v>159</v>
@@ -41503,8 +41663,9 @@
         <v>2687177</v>
       </c>
       <c r="I380" s="34"/>
-    </row>
-    <row r="381" spans="1:12" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T380" s="43"/>
+    </row>
+    <row r="381" spans="1:20" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="94"/>
       <c r="C381" s="95" t="s">
         <v>160</v>
@@ -41516,16 +41677,18 @@
       <c r="F381" s="93"/>
       <c r="I381" s="34"/>
       <c r="J381" s="93"/>
-    </row>
-    <row r="382" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T381" s="207"/>
+    </row>
+    <row r="382" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="79"/>
       <c r="F382" s="34"/>
       <c r="I382" s="34"/>
       <c r="J382" s="31">
         <v>4670945</v>
       </c>
-    </row>
-    <row r="383" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T382" s="43"/>
+    </row>
+    <row r="383" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="79"/>
       <c r="E383" s="34" t="s">
         <v>805</v>
@@ -41539,8 +41702,9 @@
         <f>J382-I367</f>
         <v>-502275</v>
       </c>
-    </row>
-    <row r="384" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T383" s="43"/>
+    </row>
+    <row r="384" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="79"/>
       <c r="E384" s="31" t="s">
         <v>806</v>
@@ -41550,308 +41714,406 @@
         <v>90.496750139781355</v>
       </c>
       <c r="G384" s="70"/>
-    </row>
-    <row r="385" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T384" s="43"/>
+    </row>
+    <row r="385" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="79"/>
       <c r="F385" s="34"/>
-    </row>
-    <row r="386" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T385" s="43"/>
+    </row>
+    <row r="386" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="79"/>
       <c r="F386" s="34"/>
-    </row>
-    <row r="387" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T386" s="43"/>
+    </row>
+    <row r="387" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="79"/>
       <c r="E387" s="34"/>
-    </row>
-    <row r="388" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T387" s="43"/>
+    </row>
+    <row r="388" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="79"/>
       <c r="E388" s="34"/>
-    </row>
-    <row r="389" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T388" s="43"/>
+    </row>
+    <row r="389" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="79"/>
       <c r="E389" s="147"/>
-    </row>
-    <row r="390" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T389" s="43"/>
+    </row>
+    <row r="390" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="79"/>
       <c r="E390" s="34"/>
-    </row>
-    <row r="391" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T390" s="43"/>
+    </row>
+    <row r="391" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="79"/>
       <c r="E391" s="34"/>
-    </row>
-    <row r="392" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T391" s="43"/>
+    </row>
+    <row r="392" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="79"/>
-    </row>
-    <row r="393" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T392" s="43"/>
+    </row>
+    <row r="393" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="79"/>
-    </row>
-    <row r="394" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T393" s="43"/>
+    </row>
+    <row r="394" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="79"/>
-    </row>
-    <row r="395" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T394" s="43"/>
+    </row>
+    <row r="395" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="79"/>
-    </row>
-    <row r="396" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T395" s="43"/>
+    </row>
+    <row r="396" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="79"/>
-    </row>
-    <row r="397" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T396" s="43"/>
+    </row>
+    <row r="397" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="79"/>
-    </row>
-    <row r="398" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T397" s="43"/>
+    </row>
+    <row r="398" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="79"/>
-    </row>
-    <row r="399" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T398" s="43"/>
+    </row>
+    <row r="399" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="79"/>
-    </row>
-    <row r="400" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T399" s="43"/>
+    </row>
+    <row r="400" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="79"/>
-    </row>
-    <row r="401" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T400" s="43"/>
+    </row>
+    <row r="401" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="79"/>
-    </row>
-    <row r="402" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T401" s="43"/>
+    </row>
+    <row r="402" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="79"/>
-    </row>
-    <row r="403" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T402" s="43"/>
+    </row>
+    <row r="403" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="79"/>
-    </row>
-    <row r="404" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T403" s="43"/>
+    </row>
+    <row r="404" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="79"/>
-    </row>
-    <row r="405" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T404" s="43"/>
+    </row>
+    <row r="405" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="79"/>
       <c r="E405" s="34"/>
       <c r="F405" s="34"/>
       <c r="G405" s="34"/>
-    </row>
-    <row r="406" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T405" s="43"/>
+    </row>
+    <row r="406" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="79"/>
-    </row>
-    <row r="407" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T406" s="43"/>
+    </row>
+    <row r="407" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="79"/>
       <c r="H407" s="34"/>
-    </row>
-    <row r="408" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T407" s="43"/>
+    </row>
+    <row r="408" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="79"/>
-    </row>
-    <row r="409" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T408" s="43"/>
+    </row>
+    <row r="409" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="79"/>
-    </row>
-    <row r="410" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T409" s="43"/>
+    </row>
+    <row r="410" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="79"/>
-    </row>
-    <row r="411" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T410" s="43"/>
+    </row>
+    <row r="411" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="79"/>
-    </row>
-    <row r="412" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T411" s="43"/>
+    </row>
+    <row r="412" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="79"/>
-    </row>
-    <row r="413" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T412" s="43"/>
+    </row>
+    <row r="413" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="79"/>
-    </row>
-    <row r="414" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T413" s="43"/>
+    </row>
+    <row r="414" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="79"/>
-    </row>
-    <row r="415" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T414" s="43"/>
+    </row>
+    <row r="415" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="79"/>
-    </row>
-    <row r="416" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T415" s="43"/>
+    </row>
+    <row r="416" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="79"/>
-    </row>
-    <row r="417" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T416" s="43"/>
+    </row>
+    <row r="417" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="79"/>
-    </row>
-    <row r="418" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T417" s="43"/>
+    </row>
+    <row r="418" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="79"/>
-    </row>
-    <row r="419" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T418" s="43"/>
+    </row>
+    <row r="419" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="79"/>
-    </row>
-    <row r="420" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T419" s="43"/>
+    </row>
+    <row r="420" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="79"/>
-    </row>
-    <row r="421" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T420" s="43"/>
+    </row>
+    <row r="421" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="79"/>
-    </row>
-    <row r="422" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T421" s="43"/>
+    </row>
+    <row r="422" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="79"/>
-    </row>
-    <row r="423" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T422" s="43"/>
+    </row>
+    <row r="423" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="79"/>
-    </row>
-    <row r="424" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T423" s="43"/>
+    </row>
+    <row r="424" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="79"/>
-    </row>
-    <row r="425" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T424" s="43"/>
+    </row>
+    <row r="425" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="79"/>
-    </row>
-    <row r="426" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T425" s="43"/>
+    </row>
+    <row r="426" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="79"/>
-    </row>
-    <row r="427" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T426" s="43"/>
+    </row>
+    <row r="427" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="79"/>
-    </row>
-    <row r="428" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T427" s="43"/>
+    </row>
+    <row r="428" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="79"/>
-    </row>
-    <row r="429" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T428" s="43"/>
+    </row>
+    <row r="429" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="79"/>
-    </row>
-    <row r="430" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T429" s="43"/>
+    </row>
+    <row r="430" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="79"/>
-    </row>
-    <row r="431" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T430" s="43"/>
+    </row>
+    <row r="431" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="79"/>
-    </row>
-    <row r="432" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T431" s="43"/>
+    </row>
+    <row r="432" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="79"/>
-    </row>
-    <row r="433" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T432" s="43"/>
+    </row>
+    <row r="433" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="79"/>
-    </row>
-    <row r="434" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T433" s="43"/>
+    </row>
+    <row r="434" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="79"/>
-    </row>
-    <row r="435" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T434" s="43"/>
+    </row>
+    <row r="435" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="79"/>
-    </row>
-    <row r="436" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T435" s="43"/>
+    </row>
+    <row r="436" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="79"/>
-    </row>
-    <row r="437" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T436" s="43"/>
+    </row>
+    <row r="437" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="79"/>
-    </row>
-    <row r="438" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T437" s="43"/>
+    </row>
+    <row r="438" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="79"/>
-    </row>
-    <row r="439" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T438" s="43"/>
+    </row>
+    <row r="439" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="79"/>
-    </row>
-    <row r="440" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T439" s="43"/>
+    </row>
+    <row r="440" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="79"/>
-    </row>
-    <row r="441" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T440" s="43"/>
+    </row>
+    <row r="441" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="79"/>
-    </row>
-    <row r="442" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T441" s="43"/>
+    </row>
+    <row r="442" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="79"/>
-    </row>
-    <row r="443" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T442" s="43"/>
+    </row>
+    <row r="443" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="79"/>
-    </row>
-    <row r="444" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T443" s="43"/>
+    </row>
+    <row r="444" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="79"/>
-    </row>
-    <row r="445" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T444" s="43"/>
+    </row>
+    <row r="445" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="79"/>
-    </row>
-    <row r="446" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T445" s="43"/>
+    </row>
+    <row r="446" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="79"/>
-    </row>
-    <row r="447" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T446" s="43"/>
+    </row>
+    <row r="447" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="79"/>
-    </row>
-    <row r="448" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T447" s="43"/>
+    </row>
+    <row r="448" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="79"/>
-    </row>
-    <row r="449" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T448" s="43"/>
+    </row>
+    <row r="449" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="79"/>
-    </row>
-    <row r="450" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T449" s="43"/>
+    </row>
+    <row r="450" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="79"/>
-    </row>
-    <row r="451" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T450" s="43"/>
+    </row>
+    <row r="451" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="79"/>
-    </row>
-    <row r="452" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T451" s="43"/>
+    </row>
+    <row r="452" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="79"/>
-    </row>
-    <row r="453" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T452" s="43"/>
+    </row>
+    <row r="453" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="79"/>
-    </row>
-    <row r="454" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T453" s="43"/>
+    </row>
+    <row r="454" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="79"/>
-    </row>
-    <row r="455" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T454" s="43"/>
+    </row>
+    <row r="455" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="79"/>
-    </row>
-    <row r="456" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T455" s="43"/>
+    </row>
+    <row r="456" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="79"/>
-    </row>
-    <row r="457" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T456" s="43"/>
+    </row>
+    <row r="457" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="79"/>
-    </row>
-    <row r="458" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T457" s="43"/>
+    </row>
+    <row r="458" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="79"/>
-    </row>
-    <row r="459" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T458" s="43"/>
+    </row>
+    <row r="459" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="79"/>
-    </row>
-    <row r="460" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T459" s="43"/>
+    </row>
+    <row r="460" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="79"/>
-    </row>
-    <row r="461" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T460" s="43"/>
+    </row>
+    <row r="461" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="79"/>
-    </row>
-    <row r="462" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T461" s="43"/>
+    </row>
+    <row r="462" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="79"/>
-    </row>
-    <row r="463" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T462" s="43"/>
+    </row>
+    <row r="463" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="79"/>
-    </row>
-    <row r="464" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T463" s="43"/>
+    </row>
+    <row r="464" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="79"/>
-    </row>
-    <row r="465" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T464" s="43"/>
+    </row>
+    <row r="465" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="79"/>
-    </row>
-    <row r="466" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T465" s="43"/>
+    </row>
+    <row r="466" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="79"/>
-    </row>
-    <row r="467" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T466" s="43"/>
+    </row>
+    <row r="467" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="79"/>
-    </row>
-    <row r="468" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T467" s="43"/>
+    </row>
+    <row r="468" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="79"/>
-    </row>
-    <row r="469" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T468" s="43"/>
+    </row>
+    <row r="469" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="79"/>
-    </row>
-    <row r="470" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T469" s="43"/>
+    </row>
+    <row r="470" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="79"/>
-    </row>
-    <row r="471" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T470" s="43"/>
+    </row>
+    <row r="471" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="79"/>
-    </row>
-    <row r="472" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T471" s="43"/>
+    </row>
+    <row r="472" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="79"/>
-    </row>
-    <row r="473" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T472" s="43"/>
+    </row>
+    <row r="473" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="79"/>
-    </row>
-    <row r="474" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T473" s="43"/>
+    </row>
+    <row r="474" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="79"/>
-    </row>
-    <row r="475" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T474" s="43"/>
+    </row>
+    <row r="475" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="79"/>
-    </row>
-    <row r="476" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T475" s="43"/>
+    </row>
+    <row r="476" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="79"/>
-    </row>
-    <row r="477" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T476" s="43"/>
+    </row>
+    <row r="477" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="79"/>
-    </row>
-    <row r="478" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T477" s="43"/>
+    </row>
+    <row r="478" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="79"/>
-    </row>
-    <row r="479" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T478" s="43"/>
+    </row>
+    <row r="479" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="79"/>
-    </row>
-    <row r="480" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T479" s="43"/>
+    </row>
+    <row r="480" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="79"/>
-    </row>
-    <row r="481" spans="1:1" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T480" s="43"/>
+    </row>
+    <row r="481" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="79"/>
+      <c r="T481" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -41889,130 +42151,130 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="200" t="s">
         <v>804</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="202"/>
     </row>
     <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="153"/>
-      <c r="C3" s="186" t="s">
+      <c r="C3" s="163" t="s">
         <v>800</v>
       </c>
-      <c r="D3" s="186" t="s">
+      <c r="D3" s="163" t="s">
         <v>801</v>
       </c>
-      <c r="E3" s="186" t="s">
+      <c r="E3" s="163" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="163" t="s">
         <v>799</v>
       </c>
-      <c r="C4" s="186">
+      <c r="C4" s="163">
         <v>732117</v>
       </c>
-      <c r="D4" s="186">
+      <c r="D4" s="163">
         <v>6753284</v>
       </c>
-      <c r="E4" s="186">
+      <c r="E4" s="163">
         <f>C4+D4</f>
         <v>7485401</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="186" t="s">
+      <c r="B5" s="163" t="s">
         <v>802</v>
       </c>
-      <c r="C5" s="186">
+      <c r="C5" s="163">
         <v>4693244</v>
       </c>
-      <c r="D5" s="186">
+      <c r="D5" s="163">
         <v>43832165</v>
       </c>
-      <c r="E5" s="186">
+      <c r="E5" s="163">
         <f t="shared" ref="E5:E6" si="0">C5+D5</f>
         <v>48525409</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="163" t="s">
         <v>803</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="163">
         <v>1732391</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="163">
         <v>15951003</v>
       </c>
-      <c r="E6" s="186">
+      <c r="E6" s="163">
         <f t="shared" si="0"/>
         <v>17683394</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="186">
+      <c r="C7" s="163">
         <f>SUM(C4:C6)</f>
         <v>7157752</v>
       </c>
-      <c r="D7" s="186">
+      <c r="D7" s="163">
         <f>SUM(D4:D6)</f>
         <v>66536452</v>
       </c>
-      <c r="E7" s="186">
+      <c r="E7" s="163">
         <f>SUM(E4:E6)</f>
         <v>73694204</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="164" t="s">
         <v>808</v>
       </c>
-      <c r="C8" s="186">
+      <c r="C8" s="163">
         <v>1188785</v>
       </c>
-      <c r="D8" s="186">
+      <c r="D8" s="163">
         <v>12945250</v>
       </c>
-      <c r="E8" s="186">
+      <c r="E8" s="163">
         <f>C8+D8</f>
         <v>14134035</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="188"/>
-      <c r="C9" s="186">
+      <c r="B9" s="165"/>
+      <c r="C9" s="163">
         <f>SUM(C7:C8)</f>
         <v>8346537</v>
       </c>
-      <c r="D9" s="186">
+      <c r="D9" s="163">
         <f>SUM(D7:D8)</f>
         <v>79481702</v>
       </c>
-      <c r="E9" s="186">
+      <c r="E9" s="163">
         <f>SUM(E7:E8)</f>
         <v>87828239</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="166" t="s">
         <v>809</v>
       </c>
-      <c r="C10" s="186">
+      <c r="C10" s="163">
         <f>C9/10^5</f>
         <v>83.465369999999993</v>
       </c>
-      <c r="D10" s="186">
+      <c r="D10" s="163">
         <f t="shared" ref="D10:E10" si="1">D9/10^5</f>
         <v>794.81701999999996</v>
       </c>
-      <c r="E10" s="186">
+      <c r="E10" s="163">
         <f t="shared" si="1"/>
         <v>878.28238999999996</v>
       </c>
@@ -42048,35 +42310,35 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31"/>
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="195" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
     </row>
     <row r="4" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
@@ -43718,14 +43980,14 @@
       <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="B74" s="174" t="s">
+      <c r="B74" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="175"/>
-      <c r="D74" s="175"/>
-      <c r="E74" s="175"/>
-      <c r="F74" s="175"/>
-      <c r="G74" s="175"/>
+      <c r="C74" s="192"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="192"/>
+      <c r="F74" s="192"/>
+      <c r="G74" s="192"/>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
@@ -43939,11 +44201,11 @@
     </row>
     <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="37"/>
-      <c r="B84" s="167" t="s">
+      <c r="B84" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="167"/>
-      <c r="D84" s="167"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
       <c r="E84" s="25">
         <f>SUM(E76:E83)</f>
         <v>109551</v>
@@ -44108,55 +44370,55 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="179" t="s">
+      <c r="B3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -47170,18 +47432,18 @@
       <c r="K93" s="10"/>
     </row>
     <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="B94" s="174" t="s">
+      <c r="B94" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="175"/>
-      <c r="D94" s="175"/>
-      <c r="E94" s="175"/>
-      <c r="F94" s="175"/>
-      <c r="G94" s="175"/>
-      <c r="H94" s="175"/>
-      <c r="I94" s="175"/>
-      <c r="J94" s="175"/>
-      <c r="K94" s="176"/>
+      <c r="C94" s="192"/>
+      <c r="D94" s="192"/>
+      <c r="E94" s="192"/>
+      <c r="F94" s="192"/>
+      <c r="G94" s="192"/>
+      <c r="H94" s="192"/>
+      <c r="I94" s="192"/>
+      <c r="J94" s="192"/>
+      <c r="K94" s="193"/>
     </row>
     <row r="95" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -47624,11 +47886,11 @@
       <c r="M106" s="17"/>
     </row>
     <row r="107" spans="1:480" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B107" s="167" t="s">
+      <c r="B107" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="167"/>
-      <c r="D107" s="167"/>
+      <c r="C107" s="184"/>
+      <c r="D107" s="184"/>
       <c r="E107" s="21">
         <f>SUM(E96:E106)</f>
         <v>3285050</v>
@@ -47662,10 +47924,10 @@
     </row>
     <row r="110" spans="1:480" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="79"/>
-      <c r="C110" s="165" t="s">
+      <c r="C110" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D110" s="166"/>
+      <c r="D110" s="183"/>
       <c r="E110" s="35">
         <f>I107+I85</f>
         <v>18839842</v>
@@ -48506,10 +48768,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="199" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="182"/>
+      <c r="C1" s="199"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="98" t="s">
@@ -48596,56 +48858,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -50073,18 +50335,18 @@
       <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="174" t="s">
+      <c r="B44" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="175"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="176"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="193"/>
       <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -50238,11 +50500,11 @@
       <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
       <c r="E50" s="21">
         <f>SUM(E46:E49)</f>
         <v>549950</v>
@@ -50273,10 +50535,10 @@
     </row>
     <row r="52" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="79"/>
-      <c r="C52" s="165" t="s">
+      <c r="C52" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="166"/>
+      <c r="D52" s="183"/>
       <c r="E52" s="35">
         <f>I41+I50</f>
         <v>7017763</v>
@@ -50670,56 +50932,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -51920,18 +52182,18 @@
       <c r="M36" s="17"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="174" t="s">
+      <c r="B37" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="176"/>
+      <c r="C37" s="192"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="192"/>
+      <c r="K37" s="193"/>
       <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -52085,11 +52347,11 @@
       <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="167" t="s">
+      <c r="B43" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
       <c r="E43" s="21">
         <f>SUM(E39:E42)</f>
         <v>352800</v>
@@ -52136,10 +52398,10 @@
     </row>
     <row r="46" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="79"/>
-      <c r="C46" s="165" t="s">
+      <c r="C46" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="166"/>
+      <c r="D46" s="183"/>
       <c r="E46" s="35">
         <f>I34+I43</f>
         <v>5795264</v>
@@ -52531,56 +52793,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -54022,18 +54284,18 @@
       <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="174" t="s">
+      <c r="B45" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="176"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="192"/>
+      <c r="K45" s="193"/>
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -54167,11 +54429,11 @@
       <c r="M49" s="17"/>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
       <c r="E50" s="21">
         <f>SUM(E47:E49)</f>
         <v>549950</v>
@@ -54218,10 +54480,10 @@
     </row>
     <row r="53" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="79"/>
-      <c r="C53" s="165" t="s">
+      <c r="C53" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="166"/>
+      <c r="D53" s="183"/>
       <c r="E53" s="35">
         <f>I42+I50</f>
         <v>7017763</v>
@@ -54616,18 +54878,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="79"/>
@@ -54646,41 +54908,41 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80"/>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="173" t="s">
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
+      <c r="J4" s="190"/>
+      <c r="K4" s="190"/>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
@@ -58599,18 +58861,18 @@
       <c r="M109" s="17"/>
     </row>
     <row r="110" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="174" t="s">
+      <c r="B110" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="175"/>
-      <c r="D110" s="175"/>
-      <c r="E110" s="175"/>
-      <c r="F110" s="175"/>
-      <c r="G110" s="175"/>
-      <c r="H110" s="175"/>
-      <c r="I110" s="175"/>
-      <c r="J110" s="175"/>
-      <c r="K110" s="176"/>
+      <c r="C110" s="192"/>
+      <c r="D110" s="192"/>
+      <c r="E110" s="192"/>
+      <c r="F110" s="192"/>
+      <c r="G110" s="192"/>
+      <c r="H110" s="192"/>
+      <c r="I110" s="192"/>
+      <c r="J110" s="192"/>
+      <c r="K110" s="193"/>
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -58900,11 +59162,11 @@
       <c r="M118" s="17"/>
     </row>
     <row r="119" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="167" t="s">
+      <c r="B119" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C119" s="167"/>
-      <c r="D119" s="167"/>
+      <c r="C119" s="184"/>
+      <c r="D119" s="184"/>
       <c r="E119" s="21">
         <f>SUM(E112:E118)</f>
         <v>1579035</v>
@@ -58951,10 +59213,10 @@
     </row>
     <row r="122" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="79"/>
-      <c r="C122" s="165" t="s">
+      <c r="C122" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="166"/>
+      <c r="D122" s="183"/>
       <c r="E122" s="35">
         <f>I107+I119</f>
         <v>20592090</v>
@@ -59348,56 +59610,56 @@
   <sheetData>
     <row r="1" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="79"/>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173" t="s">
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
@@ -64564,18 +64826,18 @@
       <c r="M140" s="17"/>
     </row>
     <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="174" t="s">
+      <c r="B141" s="191" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="175"/>
-      <c r="D141" s="175"/>
-      <c r="E141" s="175"/>
-      <c r="F141" s="175"/>
-      <c r="G141" s="175"/>
-      <c r="H141" s="175"/>
-      <c r="I141" s="175"/>
-      <c r="J141" s="175"/>
-      <c r="K141" s="176"/>
+      <c r="C141" s="192"/>
+      <c r="D141" s="192"/>
+      <c r="E141" s="192"/>
+      <c r="F141" s="192"/>
+      <c r="G141" s="192"/>
+      <c r="H141" s="192"/>
+      <c r="I141" s="192"/>
+      <c r="J141" s="192"/>
+      <c r="K141" s="193"/>
       <c r="L141" s="6"/>
       <c r="M141" s="17"/>
     </row>
@@ -65022,11 +65284,11 @@
       <c r="M153" s="17"/>
     </row>
     <row r="154" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="167" t="s">
+      <c r="B154" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="C154" s="167"/>
-      <c r="D154" s="167"/>
+      <c r="C154" s="184"/>
+      <c r="D154" s="184"/>
       <c r="E154" s="21">
         <f>SUM(E143:E153)</f>
         <v>2671035</v>
@@ -65074,10 +65336,10 @@
     </row>
     <row r="157" spans="1:13" s="31" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="79"/>
-      <c r="C157" s="165" t="s">
+      <c r="C157" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="D157" s="166"/>
+      <c r="D157" s="183"/>
       <c r="E157" s="35">
         <f>I138+I154</f>
         <v>27940702</v>
